--- a/tests/testdata/test_concatenate_column_multipleISTD/WideTableFormColumn_Concatenate_TransposeResults.xlsx
+++ b/tests/testdata/test_concatenate_column_multipleISTD/WideTableFormColumn_Concatenate_TransposeResults.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ52"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,8 +438,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -448,38 +448,37 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="17" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
     <col width="13" customWidth="1" min="20" max="20"/>
-    <col width="13" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
     <col width="12" customWidth="1" min="23" max="23"/>
-    <col width="12" customWidth="1" min="24" max="24"/>
-    <col width="17" customWidth="1" min="25" max="25"/>
-    <col width="12" customWidth="1" min="26" max="26"/>
-    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="12" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="12" customWidth="1" min="27" max="27"/>
     <col width="12" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="12" customWidth="1" min="30" max="30"/>
-    <col width="17" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="17" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
     <col width="12" customWidth="1" min="35" max="35"/>
-    <col width="12" customWidth="1" min="36" max="36"/>
-    <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="17" customWidth="1" min="38" max="38"/>
-    <col width="12" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="13" customWidth="1" min="39" max="39"/>
     <col width="13" customWidth="1" min="40" max="40"/>
-    <col width="13" customWidth="1" min="41" max="41"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
     <col width="15" customWidth="1" min="42" max="42"/>
-    <col width="15" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,210 +489,205 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Transition_Name_ISTD</t>
+          <t>05_TQC</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>05_TQC</t>
+          <t>06_TQC_02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>06_TQC_02</t>
+          <t>07_TQC_03</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>07_TQC_03</t>
+          <t>08_TQC_04</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>08_TQC_04</t>
+          <t>09_TQC_05</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>09_TQC_05</t>
+          <t>10_TQC_06</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>10_TQC_06</t>
+          <t>11_TQC_07</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>11_TQC_07</t>
+          <t>12_PQC_08</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>12_PQC_08</t>
+          <t>13_PQC_09</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>13_PQC_09</t>
+          <t>14_PQC_10</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>14_PQC_10</t>
+          <t>1_untreated</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>1_untreated</t>
+          <t>1_30m</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>1_30m</t>
+          <t>1_3h</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>1_3h</t>
+          <t>1_8h</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>1_8h</t>
+          <t>19_PQC_11</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>19_PQC_11</t>
+          <t>1_16h</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>1_16h</t>
+          <t>2_untreated</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2_untreated</t>
+          <t>2_30m</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2_30m</t>
+          <t>2_3h</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2_3h</t>
+          <t>25_PQC_12</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>25_PQC_12</t>
+          <t>2_8h</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2_8h</t>
+          <t>2_16h</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2_16h</t>
+          <t>3_untreated</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>3_untreated</t>
+          <t>3_30m</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>3_30m</t>
+          <t>30_PQC_13</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>30_PQC_13</t>
+          <t>3_3h</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>3_3h</t>
+          <t>3_8h</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>3_8h</t>
+          <t>3_16h</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>3_16h</t>
+          <t>4_untreated</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>4_untreated</t>
+          <t>36_PQC_14</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>36_PQC_14</t>
+          <t>4_30m</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>4_30m</t>
+          <t>4_3h</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>4_3h</t>
+          <t>4_8h</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>4_8h</t>
+          <t>4_16h</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>4_16h</t>
+          <t>41_PQC_15</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>41_PQC_15</t>
+          <t>6_untreated</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>6_untreated</t>
+          <t>6_30m</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>6_30m</t>
+          <t>6_3h</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>6_3h</t>
+          <t>6_8h</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>6_8h</t>
+          <t>47_PQC_16</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>47_PQC_16</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>48_PQC_17</t>
         </is>
@@ -705,6874 +699,3897 @@
           <t>LPC 20:5</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3612</v>
       </c>
       <c r="C2" t="n">
-        <v>3612</v>
+        <v>3181</v>
       </c>
       <c r="D2" t="n">
-        <v>3181</v>
+        <v>2956</v>
       </c>
       <c r="E2" t="n">
-        <v>2956</v>
+        <v>2979</v>
       </c>
       <c r="F2" t="n">
-        <v>2979</v>
+        <v>3019</v>
       </c>
       <c r="G2" t="n">
-        <v>3019</v>
+        <v>2927</v>
       </c>
       <c r="H2" t="n">
-        <v>2927</v>
+        <v>3017</v>
       </c>
       <c r="I2" t="n">
-        <v>3017</v>
+        <v>2998</v>
       </c>
       <c r="J2" t="n">
-        <v>2998</v>
+        <v>2959</v>
       </c>
       <c r="K2" t="n">
-        <v>2959</v>
+        <v>3119</v>
       </c>
       <c r="L2" t="n">
-        <v>3119</v>
+        <v>4823</v>
       </c>
       <c r="M2" t="n">
-        <v>4823</v>
+        <v>2750</v>
       </c>
       <c r="N2" t="n">
-        <v>2750</v>
+        <v>2913</v>
       </c>
       <c r="O2" t="n">
-        <v>2913</v>
+        <v>2571</v>
       </c>
       <c r="P2" t="n">
-        <v>2571</v>
+        <v>3038</v>
       </c>
       <c r="Q2" t="n">
-        <v>3038</v>
+        <v>2485</v>
       </c>
       <c r="R2" t="n">
-        <v>2485</v>
+        <v>2272</v>
       </c>
       <c r="S2" t="n">
-        <v>2272</v>
+        <v>2613</v>
       </c>
       <c r="T2" t="n">
-        <v>2613</v>
+        <v>17515</v>
       </c>
       <c r="U2" t="n">
-        <v>17515</v>
+        <v>3003</v>
       </c>
       <c r="V2" t="n">
-        <v>3003</v>
+        <v>2045</v>
       </c>
       <c r="W2" t="n">
-        <v>2045</v>
+        <v>2132</v>
       </c>
       <c r="X2" t="n">
-        <v>2132</v>
+        <v>2024</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024</v>
+        <v>1873</v>
       </c>
       <c r="Z2" t="n">
-        <v>1873</v>
+        <v>2798</v>
       </c>
       <c r="AA2" t="n">
-        <v>2798</v>
+        <v>1523</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523</v>
+        <v>1460</v>
       </c>
       <c r="AC2" t="n">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="AD2" t="n">
-        <v>1617</v>
+        <v>9732</v>
       </c>
       <c r="AE2" t="n">
-        <v>9732</v>
+        <v>2891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2891</v>
+        <v>1740</v>
       </c>
       <c r="AG2" t="n">
-        <v>1740</v>
+        <v>1951</v>
       </c>
       <c r="AH2" t="n">
         <v>1951</v>
       </c>
       <c r="AI2" t="n">
-        <v>1951</v>
+        <v>2178</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2178</v>
+        <v>2823</v>
       </c>
       <c r="AK2" t="n">
-        <v>2823</v>
+        <v>1999</v>
       </c>
       <c r="AL2" t="n">
-        <v>1999</v>
+        <v>1696</v>
       </c>
       <c r="AM2" t="n">
-        <v>1696</v>
+        <v>1883</v>
       </c>
       <c r="AN2" t="n">
-        <v>1883</v>
+        <v>10703</v>
       </c>
       <c r="AO2" t="n">
-        <v>10703</v>
+        <v>3047</v>
       </c>
       <c r="AP2" t="n">
-        <v>3047</v>
-      </c>
-      <c r="AQ2" t="n">
         <v>2874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LPC 20:5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 14:0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14722</v>
       </c>
       <c r="C3" t="n">
-        <v>3612</v>
+        <v>12798</v>
       </c>
       <c r="D3" t="n">
-        <v>3181</v>
+        <v>12786</v>
       </c>
       <c r="E3" t="n">
-        <v>2956</v>
+        <v>12672</v>
       </c>
       <c r="F3" t="n">
-        <v>2979</v>
+        <v>12387</v>
       </c>
       <c r="G3" t="n">
-        <v>3019</v>
+        <v>12572</v>
       </c>
       <c r="H3" t="n">
-        <v>2927</v>
+        <v>12456</v>
       </c>
       <c r="I3" t="n">
-        <v>3017</v>
+        <v>12024</v>
       </c>
       <c r="J3" t="n">
-        <v>2998</v>
+        <v>12530</v>
       </c>
       <c r="K3" t="n">
-        <v>2959</v>
+        <v>12150</v>
       </c>
       <c r="L3" t="n">
-        <v>3119</v>
+        <v>13832</v>
       </c>
       <c r="M3" t="n">
-        <v>4823</v>
+        <v>9423</v>
       </c>
       <c r="N3" t="n">
-        <v>2750</v>
+        <v>10783</v>
       </c>
       <c r="O3" t="n">
-        <v>2913</v>
+        <v>11115</v>
       </c>
       <c r="P3" t="n">
-        <v>2571</v>
+        <v>11739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3038</v>
+        <v>11041</v>
       </c>
       <c r="R3" t="n">
-        <v>2485</v>
+        <v>10177</v>
       </c>
       <c r="S3" t="n">
-        <v>2272</v>
+        <v>14051</v>
       </c>
       <c r="T3" t="n">
-        <v>2613</v>
+        <v>52307</v>
       </c>
       <c r="U3" t="n">
-        <v>17515</v>
+        <v>11933</v>
       </c>
       <c r="V3" t="n">
-        <v>3003</v>
+        <v>7982</v>
       </c>
       <c r="W3" t="n">
-        <v>2045</v>
+        <v>8928</v>
       </c>
       <c r="X3" t="n">
-        <v>2132</v>
+        <v>9553</v>
       </c>
       <c r="Y3" t="n">
-        <v>2024</v>
+        <v>9350</v>
       </c>
       <c r="Z3" t="n">
-        <v>1873</v>
+        <v>11423</v>
       </c>
       <c r="AA3" t="n">
-        <v>2798</v>
+        <v>7887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1523</v>
+        <v>7422</v>
       </c>
       <c r="AC3" t="n">
-        <v>1460</v>
+        <v>9742</v>
       </c>
       <c r="AD3" t="n">
-        <v>1617</v>
+        <v>37524</v>
       </c>
       <c r="AE3" t="n">
-        <v>9732</v>
+        <v>11837</v>
       </c>
       <c r="AF3" t="n">
-        <v>2891</v>
+        <v>6990</v>
       </c>
       <c r="AG3" t="n">
-        <v>1740</v>
+        <v>8230</v>
       </c>
       <c r="AH3" t="n">
-        <v>1951</v>
+        <v>8614</v>
       </c>
       <c r="AI3" t="n">
-        <v>1951</v>
+        <v>9482</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2178</v>
+        <v>11296</v>
       </c>
       <c r="AK3" t="n">
-        <v>2823</v>
+        <v>9399</v>
       </c>
       <c r="AL3" t="n">
-        <v>1999</v>
+        <v>7425</v>
       </c>
       <c r="AM3" t="n">
-        <v>1696</v>
+        <v>9138</v>
       </c>
       <c r="AN3" t="n">
-        <v>1883</v>
+        <v>35848</v>
       </c>
       <c r="AO3" t="n">
-        <v>10703</v>
+        <v>11785</v>
       </c>
       <c r="AP3" t="n">
-        <v>3047</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>2874</v>
+        <v>10973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LPC 14:0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>LPC 18:3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3297</v>
+      </c>
       <c r="C4" t="n">
-        <v>14722</v>
+        <v>2779</v>
       </c>
       <c r="D4" t="n">
-        <v>12798</v>
+        <v>2629</v>
       </c>
       <c r="E4" t="n">
-        <v>12786</v>
+        <v>2562</v>
       </c>
       <c r="F4" t="n">
-        <v>12672</v>
+        <v>2659</v>
       </c>
       <c r="G4" t="n">
-        <v>12387</v>
+        <v>2657</v>
       </c>
       <c r="H4" t="n">
-        <v>12572</v>
+        <v>2483</v>
       </c>
       <c r="I4" t="n">
-        <v>12456</v>
+        <v>2665</v>
       </c>
       <c r="J4" t="n">
-        <v>12024</v>
+        <v>2574</v>
       </c>
       <c r="K4" t="n">
-        <v>12530</v>
+        <v>2675</v>
       </c>
       <c r="L4" t="n">
-        <v>12150</v>
+        <v>6358</v>
       </c>
       <c r="M4" t="n">
-        <v>13832</v>
+        <v>3399</v>
       </c>
       <c r="N4" t="n">
-        <v>9423</v>
+        <v>3413</v>
       </c>
       <c r="O4" t="n">
-        <v>10783</v>
+        <v>2999</v>
       </c>
       <c r="P4" t="n">
-        <v>11115</v>
+        <v>2651</v>
       </c>
       <c r="Q4" t="n">
-        <v>11739</v>
+        <v>2923</v>
       </c>
       <c r="R4" t="n">
-        <v>11041</v>
+        <v>2535</v>
       </c>
       <c r="S4" t="n">
-        <v>10177</v>
+        <v>3147</v>
       </c>
       <c r="T4" t="n">
-        <v>14051</v>
+        <v>20807</v>
       </c>
       <c r="U4" t="n">
-        <v>52307</v>
+        <v>2628</v>
       </c>
       <c r="V4" t="n">
-        <v>11933</v>
+        <v>1498</v>
       </c>
       <c r="W4" t="n">
-        <v>7982</v>
+        <v>1459</v>
       </c>
       <c r="X4" t="n">
-        <v>8928</v>
+        <v>1454</v>
       </c>
       <c r="Y4" t="n">
-        <v>9553</v>
+        <v>1197</v>
       </c>
       <c r="Z4" t="n">
-        <v>9350</v>
+        <v>2611</v>
       </c>
       <c r="AA4" t="n">
-        <v>11423</v>
+        <v>978</v>
       </c>
       <c r="AB4" t="n">
-        <v>7887</v>
+        <v>918</v>
       </c>
       <c r="AC4" t="n">
-        <v>7422</v>
+        <v>936</v>
       </c>
       <c r="AD4" t="n">
-        <v>9742</v>
+        <v>6416</v>
       </c>
       <c r="AE4" t="n">
-        <v>37524</v>
+        <v>2526</v>
       </c>
       <c r="AF4" t="n">
-        <v>11837</v>
+        <v>1150</v>
       </c>
       <c r="AG4" t="n">
-        <v>6990</v>
+        <v>1147</v>
       </c>
       <c r="AH4" t="n">
-        <v>8230</v>
+        <v>1061</v>
       </c>
       <c r="AI4" t="n">
-        <v>8614</v>
+        <v>1227</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9482</v>
+        <v>2477</v>
       </c>
       <c r="AK4" t="n">
-        <v>11296</v>
+        <v>1149</v>
       </c>
       <c r="AL4" t="n">
-        <v>9399</v>
+        <v>954</v>
       </c>
       <c r="AM4" t="n">
-        <v>7425</v>
+        <v>1113</v>
       </c>
       <c r="AN4" t="n">
-        <v>9138</v>
+        <v>6158</v>
       </c>
       <c r="AO4" t="n">
-        <v>35848</v>
+        <v>2492</v>
       </c>
       <c r="AP4" t="n">
-        <v>11785</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>10973</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LPC 18:3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 16:1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18932</v>
       </c>
       <c r="C5" t="n">
-        <v>3297</v>
+        <v>16303</v>
       </c>
       <c r="D5" t="n">
-        <v>2779</v>
+        <v>16283</v>
       </c>
       <c r="E5" t="n">
-        <v>2629</v>
+        <v>15874</v>
       </c>
       <c r="F5" t="n">
-        <v>2562</v>
+        <v>15419</v>
       </c>
       <c r="G5" t="n">
-        <v>2659</v>
+        <v>15798</v>
       </c>
       <c r="H5" t="n">
-        <v>2657</v>
+        <v>15306</v>
       </c>
       <c r="I5" t="n">
-        <v>2483</v>
+        <v>15696</v>
       </c>
       <c r="J5" t="n">
-        <v>2665</v>
+        <v>15459</v>
       </c>
       <c r="K5" t="n">
-        <v>2574</v>
+        <v>15893</v>
       </c>
       <c r="L5" t="n">
-        <v>2675</v>
+        <v>19380</v>
       </c>
       <c r="M5" t="n">
-        <v>6358</v>
+        <v>12639</v>
       </c>
       <c r="N5" t="n">
-        <v>3399</v>
+        <v>13978</v>
       </c>
       <c r="O5" t="n">
-        <v>3413</v>
+        <v>13682</v>
       </c>
       <c r="P5" t="n">
-        <v>2999</v>
+        <v>15254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2651</v>
+        <v>13342</v>
       </c>
       <c r="R5" t="n">
-        <v>2923</v>
+        <v>12685</v>
       </c>
       <c r="S5" t="n">
-        <v>2535</v>
+        <v>16440</v>
       </c>
       <c r="T5" t="n">
-        <v>3147</v>
+        <v>70624</v>
       </c>
       <c r="U5" t="n">
-        <v>20807</v>
+        <v>15475</v>
       </c>
       <c r="V5" t="n">
-        <v>2628</v>
+        <v>11811</v>
       </c>
       <c r="W5" t="n">
-        <v>1498</v>
+        <v>12763</v>
       </c>
       <c r="X5" t="n">
-        <v>1459</v>
+        <v>12463</v>
       </c>
       <c r="Y5" t="n">
-        <v>1454</v>
+        <v>11961</v>
       </c>
       <c r="Z5" t="n">
-        <v>1197</v>
+        <v>15061</v>
       </c>
       <c r="AA5" t="n">
-        <v>2611</v>
+        <v>9571</v>
       </c>
       <c r="AB5" t="n">
-        <v>978</v>
+        <v>9284</v>
       </c>
       <c r="AC5" t="n">
-        <v>918</v>
+        <v>11036</v>
       </c>
       <c r="AD5" t="n">
-        <v>936</v>
+        <v>54867</v>
       </c>
       <c r="AE5" t="n">
-        <v>6416</v>
+        <v>14568</v>
       </c>
       <c r="AF5" t="n">
-        <v>2526</v>
+        <v>8383</v>
       </c>
       <c r="AG5" t="n">
-        <v>1150</v>
+        <v>9932</v>
       </c>
       <c r="AH5" t="n">
-        <v>1147</v>
+        <v>9987</v>
       </c>
       <c r="AI5" t="n">
-        <v>1061</v>
+        <v>11159</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1227</v>
+        <v>15071</v>
       </c>
       <c r="AK5" t="n">
-        <v>2477</v>
+        <v>10991</v>
       </c>
       <c r="AL5" t="n">
-        <v>1149</v>
+        <v>8764</v>
       </c>
       <c r="AM5" t="n">
-        <v>954</v>
+        <v>10215</v>
       </c>
       <c r="AN5" t="n">
-        <v>1113</v>
+        <v>46372</v>
       </c>
       <c r="AO5" t="n">
-        <v>6158</v>
+        <v>14449</v>
       </c>
       <c r="AP5" t="n">
-        <v>2492</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2422</v>
+        <v>14381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LPC 18:3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 22:6</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4538</v>
       </c>
       <c r="C6" t="n">
-        <v>3297</v>
+        <v>3919</v>
       </c>
       <c r="D6" t="n">
-        <v>2779</v>
+        <v>3865</v>
       </c>
       <c r="E6" t="n">
-        <v>2629</v>
+        <v>4006</v>
       </c>
       <c r="F6" t="n">
-        <v>2562</v>
+        <v>3870</v>
       </c>
       <c r="G6" t="n">
-        <v>2659</v>
+        <v>3704</v>
       </c>
       <c r="H6" t="n">
-        <v>2657</v>
+        <v>3992</v>
       </c>
       <c r="I6" t="n">
-        <v>2483</v>
+        <v>3704</v>
       </c>
       <c r="J6" t="n">
-        <v>2665</v>
+        <v>3794</v>
       </c>
       <c r="K6" t="n">
-        <v>2574</v>
+        <v>3918</v>
       </c>
       <c r="L6" t="n">
-        <v>2675</v>
+        <v>5745</v>
       </c>
       <c r="M6" t="n">
-        <v>6358</v>
+        <v>3129</v>
       </c>
       <c r="N6" t="n">
-        <v>3399</v>
+        <v>3035</v>
       </c>
       <c r="O6" t="n">
-        <v>3413</v>
+        <v>3032</v>
       </c>
       <c r="P6" t="n">
-        <v>2999</v>
+        <v>3684</v>
       </c>
       <c r="Q6" t="n">
-        <v>2651</v>
+        <v>2864</v>
       </c>
       <c r="R6" t="n">
-        <v>2923</v>
+        <v>2823</v>
       </c>
       <c r="S6" t="n">
-        <v>2535</v>
+        <v>3543</v>
       </c>
       <c r="T6" t="n">
-        <v>3147</v>
+        <v>20909</v>
       </c>
       <c r="U6" t="n">
-        <v>20807</v>
+        <v>3725</v>
       </c>
       <c r="V6" t="n">
-        <v>2628</v>
+        <v>2980</v>
       </c>
       <c r="W6" t="n">
-        <v>1498</v>
+        <v>3164</v>
       </c>
       <c r="X6" t="n">
-        <v>1459</v>
+        <v>3204</v>
       </c>
       <c r="Y6" t="n">
-        <v>1454</v>
+        <v>2896</v>
       </c>
       <c r="Z6" t="n">
-        <v>1197</v>
+        <v>3569</v>
       </c>
       <c r="AA6" t="n">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="AB6" t="n">
-        <v>978</v>
+        <v>2926</v>
       </c>
       <c r="AC6" t="n">
-        <v>918</v>
+        <v>3277</v>
       </c>
       <c r="AD6" t="n">
-        <v>936</v>
+        <v>13326</v>
       </c>
       <c r="AE6" t="n">
-        <v>6416</v>
+        <v>3622</v>
       </c>
       <c r="AF6" t="n">
-        <v>2526</v>
+        <v>2022</v>
       </c>
       <c r="AG6" t="n">
-        <v>1150</v>
+        <v>2287</v>
       </c>
       <c r="AH6" t="n">
-        <v>1147</v>
+        <v>2273</v>
       </c>
       <c r="AI6" t="n">
-        <v>1061</v>
+        <v>2430</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1227</v>
+        <v>3767</v>
       </c>
       <c r="AK6" t="n">
-        <v>2477</v>
+        <v>2527</v>
       </c>
       <c r="AL6" t="n">
-        <v>1149</v>
+        <v>2101</v>
       </c>
       <c r="AM6" t="n">
-        <v>954</v>
+        <v>2850</v>
       </c>
       <c r="AN6" t="n">
-        <v>1113</v>
+        <v>11686</v>
       </c>
       <c r="AO6" t="n">
-        <v>6158</v>
+        <v>3924</v>
       </c>
       <c r="AP6" t="n">
-        <v>2492</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2422</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LPC 16:1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 15:0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10430</v>
       </c>
       <c r="C7" t="n">
-        <v>18932</v>
+        <v>8380</v>
       </c>
       <c r="D7" t="n">
-        <v>16303</v>
+        <v>8349</v>
       </c>
       <c r="E7" t="n">
-        <v>16283</v>
+        <v>8272</v>
       </c>
       <c r="F7" t="n">
-        <v>15874</v>
+        <v>7984</v>
       </c>
       <c r="G7" t="n">
-        <v>15419</v>
+        <v>8290</v>
       </c>
       <c r="H7" t="n">
-        <v>15798</v>
+        <v>8529</v>
       </c>
       <c r="I7" t="n">
-        <v>15306</v>
+        <v>8201</v>
       </c>
       <c r="J7" t="n">
-        <v>15696</v>
+        <v>8175</v>
       </c>
       <c r="K7" t="n">
-        <v>15459</v>
+        <v>8117</v>
       </c>
       <c r="L7" t="n">
-        <v>15893</v>
+        <v>9373</v>
       </c>
       <c r="M7" t="n">
-        <v>19380</v>
+        <v>6163</v>
       </c>
       <c r="N7" t="n">
-        <v>12639</v>
+        <v>7288</v>
       </c>
       <c r="O7" t="n">
-        <v>13978</v>
+        <v>7617</v>
       </c>
       <c r="P7" t="n">
-        <v>13682</v>
+        <v>7808</v>
       </c>
       <c r="Q7" t="n">
-        <v>15254</v>
+        <v>7783</v>
       </c>
       <c r="R7" t="n">
-        <v>13342</v>
+        <v>7679</v>
       </c>
       <c r="S7" t="n">
-        <v>12685</v>
+        <v>9966</v>
       </c>
       <c r="T7" t="n">
-        <v>16440</v>
+        <v>37754</v>
       </c>
       <c r="U7" t="n">
-        <v>70624</v>
+        <v>7860</v>
       </c>
       <c r="V7" t="n">
-        <v>15475</v>
+        <v>4265</v>
       </c>
       <c r="W7" t="n">
-        <v>11811</v>
+        <v>4897</v>
       </c>
       <c r="X7" t="n">
-        <v>12763</v>
+        <v>5466</v>
       </c>
       <c r="Y7" t="n">
-        <v>12463</v>
+        <v>5589</v>
       </c>
       <c r="Z7" t="n">
-        <v>11961</v>
+        <v>7829</v>
       </c>
       <c r="AA7" t="n">
-        <v>15061</v>
+        <v>4751</v>
       </c>
       <c r="AB7" t="n">
-        <v>9571</v>
+        <v>4984</v>
       </c>
       <c r="AC7" t="n">
-        <v>9284</v>
+        <v>6258</v>
       </c>
       <c r="AD7" t="n">
-        <v>11036</v>
+        <v>20599</v>
       </c>
       <c r="AE7" t="n">
-        <v>54867</v>
+        <v>7644</v>
       </c>
       <c r="AF7" t="n">
-        <v>14568</v>
+        <v>4683</v>
       </c>
       <c r="AG7" t="n">
-        <v>8383</v>
+        <v>5672</v>
       </c>
       <c r="AH7" t="n">
-        <v>9932</v>
+        <v>5893</v>
       </c>
       <c r="AI7" t="n">
-        <v>9987</v>
+        <v>7437</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11159</v>
+        <v>7501</v>
       </c>
       <c r="AK7" t="n">
-        <v>15071</v>
+        <v>7028</v>
       </c>
       <c r="AL7" t="n">
-        <v>10991</v>
+        <v>6061</v>
       </c>
       <c r="AM7" t="n">
-        <v>8764</v>
+        <v>7509</v>
       </c>
       <c r="AN7" t="n">
-        <v>10215</v>
+        <v>27480</v>
       </c>
       <c r="AO7" t="n">
-        <v>46372</v>
+        <v>7607</v>
       </c>
       <c r="AP7" t="n">
-        <v>14449</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>14381</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LPC 16:1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 20:4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>28891</v>
       </c>
       <c r="C8" t="n">
-        <v>18932</v>
+        <v>25150</v>
       </c>
       <c r="D8" t="n">
-        <v>16303</v>
+        <v>24918</v>
       </c>
       <c r="E8" t="n">
-        <v>16283</v>
+        <v>24555</v>
       </c>
       <c r="F8" t="n">
-        <v>15874</v>
+        <v>24245</v>
       </c>
       <c r="G8" t="n">
-        <v>15419</v>
+        <v>24073</v>
       </c>
       <c r="H8" t="n">
-        <v>15798</v>
+        <v>24860</v>
       </c>
       <c r="I8" t="n">
-        <v>15306</v>
+        <v>24154</v>
       </c>
       <c r="J8" t="n">
-        <v>15696</v>
+        <v>24571</v>
       </c>
       <c r="K8" t="n">
-        <v>15459</v>
+        <v>23376</v>
       </c>
       <c r="L8" t="n">
-        <v>15893</v>
+        <v>34986</v>
       </c>
       <c r="M8" t="n">
-        <v>19380</v>
+        <v>18552</v>
       </c>
       <c r="N8" t="n">
-        <v>12639</v>
+        <v>19208</v>
       </c>
       <c r="O8" t="n">
-        <v>13978</v>
+        <v>17679</v>
       </c>
       <c r="P8" t="n">
-        <v>13682</v>
+        <v>23884</v>
       </c>
       <c r="Q8" t="n">
-        <v>15254</v>
+        <v>17339</v>
       </c>
       <c r="R8" t="n">
-        <v>13342</v>
+        <v>16210</v>
       </c>
       <c r="S8" t="n">
-        <v>12685</v>
+        <v>19253</v>
       </c>
       <c r="T8" t="n">
-        <v>16440</v>
+        <v>140789</v>
       </c>
       <c r="U8" t="n">
-        <v>70624</v>
+        <v>23874</v>
       </c>
       <c r="V8" t="n">
-        <v>15475</v>
+        <v>13740</v>
       </c>
       <c r="W8" t="n">
-        <v>11811</v>
+        <v>14562</v>
       </c>
       <c r="X8" t="n">
-        <v>12763</v>
+        <v>14658</v>
       </c>
       <c r="Y8" t="n">
-        <v>12463</v>
+        <v>13534</v>
       </c>
       <c r="Z8" t="n">
-        <v>11961</v>
+        <v>22599</v>
       </c>
       <c r="AA8" t="n">
-        <v>15061</v>
+        <v>11218</v>
       </c>
       <c r="AB8" t="n">
-        <v>9571</v>
+        <v>11528</v>
       </c>
       <c r="AC8" t="n">
-        <v>9284</v>
+        <v>12702</v>
       </c>
       <c r="AD8" t="n">
-        <v>11036</v>
+        <v>78465</v>
       </c>
       <c r="AE8" t="n">
-        <v>54867</v>
+        <v>23062</v>
       </c>
       <c r="AF8" t="n">
-        <v>14568</v>
+        <v>17671</v>
       </c>
       <c r="AG8" t="n">
-        <v>8383</v>
+        <v>19387</v>
       </c>
       <c r="AH8" t="n">
-        <v>9932</v>
+        <v>19228</v>
       </c>
       <c r="AI8" t="n">
-        <v>9987</v>
+        <v>21947</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11159</v>
+        <v>22610</v>
       </c>
       <c r="AK8" t="n">
-        <v>15071</v>
+        <v>20286</v>
       </c>
       <c r="AL8" t="n">
-        <v>10991</v>
+        <v>17352</v>
       </c>
       <c r="AM8" t="n">
-        <v>8764</v>
+        <v>20905</v>
       </c>
       <c r="AN8" t="n">
-        <v>10215</v>
+        <v>123545</v>
       </c>
       <c r="AO8" t="n">
-        <v>46372</v>
+        <v>22760</v>
       </c>
       <c r="AP8" t="n">
-        <v>14449</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>14381</v>
+        <v>22837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LPC 22:6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 18:2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150750</v>
       </c>
       <c r="C9" t="n">
-        <v>4538</v>
+        <v>129316</v>
       </c>
       <c r="D9" t="n">
-        <v>3919</v>
+        <v>126323</v>
       </c>
       <c r="E9" t="n">
-        <v>3865</v>
+        <v>126972</v>
       </c>
       <c r="F9" t="n">
-        <v>4006</v>
+        <v>123809</v>
       </c>
       <c r="G9" t="n">
-        <v>3870</v>
+        <v>125955</v>
       </c>
       <c r="H9" t="n">
-        <v>3704</v>
+        <v>124474</v>
       </c>
       <c r="I9" t="n">
-        <v>3992</v>
+        <v>125087</v>
       </c>
       <c r="J9" t="n">
-        <v>3704</v>
+        <v>122849</v>
       </c>
       <c r="K9" t="n">
-        <v>3794</v>
+        <v>122838</v>
       </c>
       <c r="L9" t="n">
-        <v>3918</v>
+        <v>343173</v>
       </c>
       <c r="M9" t="n">
-        <v>5745</v>
+        <v>160800</v>
       </c>
       <c r="N9" t="n">
-        <v>3129</v>
+        <v>157788</v>
       </c>
       <c r="O9" t="n">
-        <v>3035</v>
+        <v>138041</v>
       </c>
       <c r="P9" t="n">
-        <v>3032</v>
+        <v>120512</v>
       </c>
       <c r="Q9" t="n">
-        <v>3684</v>
+        <v>126712</v>
       </c>
       <c r="R9" t="n">
-        <v>2864</v>
+        <v>113582</v>
       </c>
       <c r="S9" t="n">
-        <v>2823</v>
+        <v>130444</v>
       </c>
       <c r="T9" t="n">
-        <v>3543</v>
+        <v>1256808</v>
       </c>
       <c r="U9" t="n">
-        <v>20909</v>
+        <v>120906</v>
       </c>
       <c r="V9" t="n">
-        <v>3725</v>
+        <v>58469</v>
       </c>
       <c r="W9" t="n">
-        <v>2980</v>
+        <v>57123</v>
       </c>
       <c r="X9" t="n">
-        <v>3164</v>
+        <v>54592</v>
       </c>
       <c r="Y9" t="n">
-        <v>3204</v>
+        <v>49171</v>
       </c>
       <c r="Z9" t="n">
-        <v>2896</v>
+        <v>117344</v>
       </c>
       <c r="AA9" t="n">
-        <v>3569</v>
+        <v>37901</v>
       </c>
       <c r="AB9" t="n">
-        <v>2604</v>
+        <v>36589</v>
       </c>
       <c r="AC9" t="n">
-        <v>2926</v>
+        <v>39844</v>
       </c>
       <c r="AD9" t="n">
-        <v>3277</v>
+        <v>295662</v>
       </c>
       <c r="AE9" t="n">
-        <v>13326</v>
+        <v>118197</v>
       </c>
       <c r="AF9" t="n">
-        <v>3622</v>
+        <v>64116</v>
       </c>
       <c r="AG9" t="n">
-        <v>2022</v>
+        <v>63855</v>
       </c>
       <c r="AH9" t="n">
-        <v>2287</v>
+        <v>59593</v>
       </c>
       <c r="AI9" t="n">
-        <v>2273</v>
+        <v>64972</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2430</v>
+        <v>116669</v>
       </c>
       <c r="AK9" t="n">
-        <v>3767</v>
+        <v>59649</v>
       </c>
       <c r="AL9" t="n">
-        <v>2527</v>
+        <v>48578</v>
       </c>
       <c r="AM9" t="n">
-        <v>2101</v>
+        <v>54782</v>
       </c>
       <c r="AN9" t="n">
-        <v>2850</v>
+        <v>455118</v>
       </c>
       <c r="AO9" t="n">
-        <v>11686</v>
+        <v>116121</v>
       </c>
       <c r="AP9" t="n">
-        <v>3924</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>3650</v>
+        <v>113745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LPC 22:6</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 22:5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2751</v>
       </c>
       <c r="C10" t="n">
-        <v>4538</v>
+        <v>2375</v>
       </c>
       <c r="D10" t="n">
-        <v>3919</v>
+        <v>2360</v>
       </c>
       <c r="E10" t="n">
-        <v>3865</v>
+        <v>2355</v>
       </c>
       <c r="F10" t="n">
-        <v>4006</v>
+        <v>2408</v>
       </c>
       <c r="G10" t="n">
-        <v>3870</v>
+        <v>2322</v>
       </c>
       <c r="H10" t="n">
-        <v>3704</v>
+        <v>2338</v>
       </c>
       <c r="I10" t="n">
-        <v>3992</v>
+        <v>2364</v>
       </c>
       <c r="J10" t="n">
-        <v>3704</v>
+        <v>2155</v>
       </c>
       <c r="K10" t="n">
-        <v>3794</v>
+        <v>2103</v>
       </c>
       <c r="L10" t="n">
-        <v>3918</v>
+        <v>4145</v>
       </c>
       <c r="M10" t="n">
-        <v>5745</v>
+        <v>2017</v>
       </c>
       <c r="N10" t="n">
-        <v>3129</v>
+        <v>2155</v>
       </c>
       <c r="O10" t="n">
-        <v>3035</v>
+        <v>2019</v>
       </c>
       <c r="P10" t="n">
-        <v>3032</v>
+        <v>2248</v>
       </c>
       <c r="Q10" t="n">
-        <v>3684</v>
+        <v>2006</v>
       </c>
       <c r="R10" t="n">
-        <v>2864</v>
+        <v>2152</v>
       </c>
       <c r="S10" t="n">
-        <v>2823</v>
+        <v>2280</v>
       </c>
       <c r="T10" t="n">
-        <v>3543</v>
+        <v>12734</v>
       </c>
       <c r="U10" t="n">
-        <v>20909</v>
+        <v>2188</v>
       </c>
       <c r="V10" t="n">
-        <v>3725</v>
+        <v>1010</v>
       </c>
       <c r="W10" t="n">
-        <v>2980</v>
+        <v>1137</v>
       </c>
       <c r="X10" t="n">
-        <v>3164</v>
+        <v>1234</v>
       </c>
       <c r="Y10" t="n">
-        <v>3204</v>
+        <v>1195</v>
       </c>
       <c r="Z10" t="n">
-        <v>2896</v>
+        <v>2271</v>
       </c>
       <c r="AA10" t="n">
-        <v>3569</v>
+        <v>963</v>
       </c>
       <c r="AB10" t="n">
-        <v>2604</v>
+        <v>1342</v>
       </c>
       <c r="AC10" t="n">
-        <v>2926</v>
+        <v>1374</v>
       </c>
       <c r="AD10" t="n">
-        <v>3277</v>
+        <v>5063</v>
       </c>
       <c r="AE10" t="n">
-        <v>13326</v>
+        <v>2214</v>
       </c>
       <c r="AF10" t="n">
-        <v>3622</v>
+        <v>1444</v>
       </c>
       <c r="AG10" t="n">
-        <v>2022</v>
+        <v>1665</v>
       </c>
       <c r="AH10" t="n">
-        <v>2287</v>
+        <v>1843</v>
       </c>
       <c r="AI10" t="n">
-        <v>2273</v>
+        <v>2096</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2430</v>
+        <v>2217</v>
       </c>
       <c r="AK10" t="n">
-        <v>3767</v>
+        <v>2078</v>
       </c>
       <c r="AL10" t="n">
-        <v>2527</v>
+        <v>2008</v>
       </c>
       <c r="AM10" t="n">
-        <v>2101</v>
+        <v>2173</v>
       </c>
       <c r="AN10" t="n">
-        <v>2850</v>
+        <v>9267</v>
       </c>
       <c r="AO10" t="n">
-        <v>11686</v>
+        <v>2125</v>
       </c>
       <c r="AP10" t="n">
-        <v>3924</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>3650</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LPC 15:0</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 17:1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2956</v>
       </c>
       <c r="C11" t="n">
-        <v>10430</v>
+        <v>2739</v>
       </c>
       <c r="D11" t="n">
-        <v>8380</v>
+        <v>2712</v>
       </c>
       <c r="E11" t="n">
-        <v>8349</v>
+        <v>2531</v>
       </c>
       <c r="F11" t="n">
-        <v>8272</v>
+        <v>2729</v>
       </c>
       <c r="G11" t="n">
-        <v>7984</v>
+        <v>2464</v>
       </c>
       <c r="H11" t="n">
-        <v>8290</v>
+        <v>2509</v>
       </c>
       <c r="I11" t="n">
-        <v>8529</v>
+        <v>2614</v>
       </c>
       <c r="J11" t="n">
-        <v>8201</v>
+        <v>2584</v>
       </c>
       <c r="K11" t="n">
-        <v>8175</v>
+        <v>2502</v>
       </c>
       <c r="L11" t="n">
-        <v>8117</v>
+        <v>3522</v>
       </c>
       <c r="M11" t="n">
-        <v>9373</v>
+        <v>2227</v>
       </c>
       <c r="N11" t="n">
-        <v>6163</v>
+        <v>2523</v>
       </c>
       <c r="O11" t="n">
-        <v>7288</v>
+        <v>2610</v>
       </c>
       <c r="P11" t="n">
-        <v>7617</v>
+        <v>2564</v>
       </c>
       <c r="Q11" t="n">
-        <v>7808</v>
+        <v>2839</v>
       </c>
       <c r="R11" t="n">
-        <v>7783</v>
+        <v>2985</v>
       </c>
       <c r="S11" t="n">
-        <v>7679</v>
+        <v>3390</v>
       </c>
       <c r="T11" t="n">
-        <v>9966</v>
+        <v>12535</v>
       </c>
       <c r="U11" t="n">
-        <v>37754</v>
+        <v>2505</v>
       </c>
       <c r="V11" t="n">
-        <v>7860</v>
+        <v>1308</v>
       </c>
       <c r="W11" t="n">
-        <v>4265</v>
+        <v>1587</v>
       </c>
       <c r="X11" t="n">
-        <v>4897</v>
+        <v>1825</v>
       </c>
       <c r="Y11" t="n">
-        <v>5466</v>
+        <v>1598</v>
       </c>
       <c r="Z11" t="n">
-        <v>5589</v>
+        <v>2467</v>
       </c>
       <c r="AA11" t="n">
-        <v>7829</v>
+        <v>1556</v>
       </c>
       <c r="AB11" t="n">
-        <v>4751</v>
+        <v>1556</v>
       </c>
       <c r="AC11" t="n">
-        <v>4984</v>
+        <v>1745</v>
       </c>
       <c r="AD11" t="n">
-        <v>6258</v>
+        <v>6327</v>
       </c>
       <c r="AE11" t="n">
-        <v>20599</v>
+        <v>2386</v>
       </c>
       <c r="AF11" t="n">
-        <v>7644</v>
+        <v>1258</v>
       </c>
       <c r="AG11" t="n">
-        <v>4683</v>
+        <v>1512</v>
       </c>
       <c r="AH11" t="n">
-        <v>5672</v>
+        <v>1640</v>
       </c>
       <c r="AI11" t="n">
-        <v>5893</v>
+        <v>1888</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7437</v>
+        <v>2408</v>
       </c>
       <c r="AK11" t="n">
-        <v>7501</v>
+        <v>1903</v>
       </c>
       <c r="AL11" t="n">
-        <v>7028</v>
+        <v>1818</v>
       </c>
       <c r="AM11" t="n">
-        <v>6061</v>
+        <v>1857</v>
       </c>
       <c r="AN11" t="n">
-        <v>7509</v>
+        <v>7039</v>
       </c>
       <c r="AO11" t="n">
-        <v>27480</v>
+        <v>2340</v>
       </c>
       <c r="AP11" t="n">
-        <v>7607</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>7885</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LPC 15:0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 20:3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14992</v>
       </c>
       <c r="C12" t="n">
-        <v>10430</v>
+        <v>13338</v>
       </c>
       <c r="D12" t="n">
-        <v>8380</v>
+        <v>13556</v>
       </c>
       <c r="E12" t="n">
-        <v>8349</v>
+        <v>13173</v>
       </c>
       <c r="F12" t="n">
-        <v>8272</v>
+        <v>13063</v>
       </c>
       <c r="G12" t="n">
-        <v>7984</v>
+        <v>13045</v>
       </c>
       <c r="H12" t="n">
-        <v>8290</v>
+        <v>13185</v>
       </c>
       <c r="I12" t="n">
-        <v>8529</v>
+        <v>13645</v>
       </c>
       <c r="J12" t="n">
-        <v>8201</v>
+        <v>13332</v>
       </c>
       <c r="K12" t="n">
-        <v>8175</v>
+        <v>13221</v>
       </c>
       <c r="L12" t="n">
-        <v>8117</v>
+        <v>23241</v>
       </c>
       <c r="M12" t="n">
-        <v>9373</v>
+        <v>12698</v>
       </c>
       <c r="N12" t="n">
-        <v>6163</v>
+        <v>12597</v>
       </c>
       <c r="O12" t="n">
-        <v>7288</v>
+        <v>11808</v>
       </c>
       <c r="P12" t="n">
-        <v>7617</v>
+        <v>12467</v>
       </c>
       <c r="Q12" t="n">
-        <v>7808</v>
+        <v>12252</v>
       </c>
       <c r="R12" t="n">
-        <v>7783</v>
+        <v>12163</v>
       </c>
       <c r="S12" t="n">
-        <v>7679</v>
+        <v>13416</v>
       </c>
       <c r="T12" t="n">
-        <v>9966</v>
+        <v>75426</v>
       </c>
       <c r="U12" t="n">
-        <v>37754</v>
+        <v>12503</v>
       </c>
       <c r="V12" t="n">
-        <v>7860</v>
+        <v>7547</v>
       </c>
       <c r="W12" t="n">
-        <v>4265</v>
+        <v>8384</v>
       </c>
       <c r="X12" t="n">
-        <v>4897</v>
+        <v>8516</v>
       </c>
       <c r="Y12" t="n">
-        <v>5466</v>
+        <v>8188</v>
       </c>
       <c r="Z12" t="n">
-        <v>5589</v>
+        <v>12070</v>
       </c>
       <c r="AA12" t="n">
-        <v>7829</v>
+        <v>6875</v>
       </c>
       <c r="AB12" t="n">
-        <v>4751</v>
+        <v>7810</v>
       </c>
       <c r="AC12" t="n">
-        <v>4984</v>
+        <v>8057</v>
       </c>
       <c r="AD12" t="n">
-        <v>6258</v>
+        <v>35606</v>
       </c>
       <c r="AE12" t="n">
-        <v>20599</v>
+        <v>12659</v>
       </c>
       <c r="AF12" t="n">
-        <v>7644</v>
+        <v>6969</v>
       </c>
       <c r="AG12" t="n">
-        <v>4683</v>
+        <v>7821</v>
       </c>
       <c r="AH12" t="n">
-        <v>5672</v>
+        <v>7825</v>
       </c>
       <c r="AI12" t="n">
-        <v>5893</v>
+        <v>9164</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7437</v>
+        <v>12739</v>
       </c>
       <c r="AK12" t="n">
-        <v>7501</v>
+        <v>9065</v>
       </c>
       <c r="AL12" t="n">
-        <v>7028</v>
+        <v>8568</v>
       </c>
       <c r="AM12" t="n">
-        <v>6061</v>
+        <v>9593</v>
       </c>
       <c r="AN12" t="n">
-        <v>7509</v>
+        <v>40849</v>
       </c>
       <c r="AO12" t="n">
-        <v>27480</v>
+        <v>12565</v>
       </c>
       <c r="AP12" t="n">
-        <v>7607</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>7885</v>
+        <v>12476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LPC 20:4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 16:0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1264430</v>
       </c>
       <c r="C13" t="n">
-        <v>28891</v>
+        <v>1095949</v>
       </c>
       <c r="D13" t="n">
-        <v>25150</v>
+        <v>1078293</v>
       </c>
       <c r="E13" t="n">
-        <v>24918</v>
+        <v>1071091</v>
       </c>
       <c r="F13" t="n">
-        <v>24555</v>
+        <v>1070266</v>
       </c>
       <c r="G13" t="n">
-        <v>24245</v>
+        <v>1070593</v>
       </c>
       <c r="H13" t="n">
-        <v>24073</v>
+        <v>1069576</v>
       </c>
       <c r="I13" t="n">
-        <v>24860</v>
+        <v>1062512</v>
       </c>
       <c r="J13" t="n">
-        <v>24154</v>
+        <v>1061363</v>
       </c>
       <c r="K13" t="n">
-        <v>24571</v>
+        <v>1053845</v>
       </c>
       <c r="L13" t="n">
-        <v>23376</v>
+        <v>1079079</v>
       </c>
       <c r="M13" t="n">
-        <v>34986</v>
+        <v>741852</v>
       </c>
       <c r="N13" t="n">
-        <v>18552</v>
+        <v>898303</v>
       </c>
       <c r="O13" t="n">
-        <v>19208</v>
+        <v>961245</v>
       </c>
       <c r="P13" t="n">
-        <v>17679</v>
+        <v>1034325</v>
       </c>
       <c r="Q13" t="n">
-        <v>23884</v>
+        <v>1041383</v>
       </c>
       <c r="R13" t="n">
-        <v>17339</v>
+        <v>1076469</v>
       </c>
       <c r="S13" t="n">
-        <v>16210</v>
+        <v>1335303</v>
       </c>
       <c r="T13" t="n">
-        <v>19253</v>
+        <v>3113660</v>
       </c>
       <c r="U13" t="n">
-        <v>140789</v>
+        <v>1042120</v>
       </c>
       <c r="V13" t="n">
-        <v>23874</v>
+        <v>529263</v>
       </c>
       <c r="W13" t="n">
-        <v>13740</v>
+        <v>674696</v>
       </c>
       <c r="X13" t="n">
-        <v>14562</v>
+        <v>754677</v>
       </c>
       <c r="Y13" t="n">
-        <v>14658</v>
+        <v>781895</v>
       </c>
       <c r="Z13" t="n">
-        <v>13534</v>
+        <v>1008846</v>
       </c>
       <c r="AA13" t="n">
-        <v>22599</v>
+        <v>723924</v>
       </c>
       <c r="AB13" t="n">
-        <v>11218</v>
+        <v>801013</v>
       </c>
       <c r="AC13" t="n">
-        <v>11528</v>
+        <v>910587</v>
       </c>
       <c r="AD13" t="n">
-        <v>12702</v>
+        <v>2403221</v>
       </c>
       <c r="AE13" t="n">
-        <v>78465</v>
+        <v>1017377</v>
       </c>
       <c r="AF13" t="n">
-        <v>23062</v>
+        <v>549348</v>
       </c>
       <c r="AG13" t="n">
-        <v>17671</v>
+        <v>717729</v>
       </c>
       <c r="AH13" t="n">
-        <v>19387</v>
+        <v>762926</v>
       </c>
       <c r="AI13" t="n">
-        <v>19228</v>
+        <v>953525</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21947</v>
+        <v>996091</v>
       </c>
       <c r="AK13" t="n">
-        <v>22610</v>
+        <v>1004592</v>
       </c>
       <c r="AL13" t="n">
-        <v>20286</v>
+        <v>907473</v>
       </c>
       <c r="AM13" t="n">
-        <v>17352</v>
+        <v>1048233</v>
       </c>
       <c r="AN13" t="n">
-        <v>20905</v>
+        <v>2711402</v>
       </c>
       <c r="AO13" t="n">
-        <v>123545</v>
+        <v>1004758</v>
       </c>
       <c r="AP13" t="n">
-        <v>22760</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>22837</v>
+        <v>979080</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LPC 20:4</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 18:1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>198027</v>
       </c>
       <c r="C14" t="n">
-        <v>28891</v>
+        <v>169924</v>
       </c>
       <c r="D14" t="n">
-        <v>25150</v>
+        <v>168576</v>
       </c>
       <c r="E14" t="n">
-        <v>24918</v>
+        <v>164075</v>
       </c>
       <c r="F14" t="n">
-        <v>24555</v>
+        <v>163720</v>
       </c>
       <c r="G14" t="n">
-        <v>24245</v>
+        <v>163689</v>
       </c>
       <c r="H14" t="n">
-        <v>24073</v>
+        <v>165981</v>
       </c>
       <c r="I14" t="n">
-        <v>24860</v>
+        <v>164306</v>
       </c>
       <c r="J14" t="n">
-        <v>24154</v>
+        <v>165123</v>
       </c>
       <c r="K14" t="n">
-        <v>24571</v>
+        <v>161826</v>
       </c>
       <c r="L14" t="n">
-        <v>23376</v>
+        <v>298336</v>
       </c>
       <c r="M14" t="n">
-        <v>34986</v>
+        <v>176457</v>
       </c>
       <c r="N14" t="n">
-        <v>18552</v>
+        <v>202593</v>
       </c>
       <c r="O14" t="n">
-        <v>19208</v>
+        <v>202959</v>
       </c>
       <c r="P14" t="n">
-        <v>17679</v>
+        <v>159609</v>
       </c>
       <c r="Q14" t="n">
-        <v>23884</v>
+        <v>208127</v>
       </c>
       <c r="R14" t="n">
-        <v>17339</v>
+        <v>208956</v>
       </c>
       <c r="S14" t="n">
-        <v>16210</v>
+        <v>265124</v>
       </c>
       <c r="T14" t="n">
-        <v>19253</v>
+        <v>1015923</v>
       </c>
       <c r="U14" t="n">
-        <v>140789</v>
+        <v>160920</v>
       </c>
       <c r="V14" t="n">
-        <v>23874</v>
+        <v>67337</v>
       </c>
       <c r="W14" t="n">
-        <v>13740</v>
+        <v>77590</v>
       </c>
       <c r="X14" t="n">
-        <v>14562</v>
+        <v>84134</v>
       </c>
       <c r="Y14" t="n">
-        <v>14658</v>
+        <v>84600</v>
       </c>
       <c r="Z14" t="n">
-        <v>13534</v>
+        <v>154225</v>
       </c>
       <c r="AA14" t="n">
-        <v>22599</v>
+        <v>73349</v>
       </c>
       <c r="AB14" t="n">
-        <v>11218</v>
+        <v>78753</v>
       </c>
       <c r="AC14" t="n">
-        <v>11528</v>
+        <v>93682</v>
       </c>
       <c r="AD14" t="n">
-        <v>12702</v>
+        <v>326469</v>
       </c>
       <c r="AE14" t="n">
-        <v>78465</v>
+        <v>155408</v>
       </c>
       <c r="AF14" t="n">
-        <v>23062</v>
+        <v>73507</v>
       </c>
       <c r="AG14" t="n">
-        <v>17671</v>
+        <v>88197</v>
       </c>
       <c r="AH14" t="n">
-        <v>19387</v>
+        <v>92767</v>
       </c>
       <c r="AI14" t="n">
-        <v>19228</v>
+        <v>110760</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21947</v>
+        <v>153251</v>
       </c>
       <c r="AK14" t="n">
-        <v>22610</v>
+        <v>111787</v>
       </c>
       <c r="AL14" t="n">
-        <v>20286</v>
+        <v>99314</v>
       </c>
       <c r="AM14" t="n">
-        <v>17352</v>
+        <v>118796</v>
       </c>
       <c r="AN14" t="n">
-        <v>20905</v>
+        <v>437296</v>
       </c>
       <c r="AO14" t="n">
-        <v>123545</v>
+        <v>152598</v>
       </c>
       <c r="AP14" t="n">
-        <v>22760</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>22837</v>
+        <v>150006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LPC 18:2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 20:2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2211</v>
       </c>
       <c r="C15" t="n">
-        <v>150750</v>
+        <v>1798</v>
       </c>
       <c r="D15" t="n">
-        <v>129316</v>
+        <v>1845</v>
       </c>
       <c r="E15" t="n">
-        <v>126323</v>
+        <v>1827</v>
       </c>
       <c r="F15" t="n">
-        <v>126972</v>
+        <v>1707</v>
       </c>
       <c r="G15" t="n">
-        <v>123809</v>
+        <v>1794</v>
       </c>
       <c r="H15" t="n">
-        <v>125955</v>
+        <v>1752</v>
       </c>
       <c r="I15" t="n">
-        <v>124474</v>
+        <v>1674</v>
       </c>
       <c r="J15" t="n">
-        <v>125087</v>
+        <v>1798</v>
       </c>
       <c r="K15" t="n">
-        <v>122849</v>
+        <v>1723</v>
       </c>
       <c r="L15" t="n">
-        <v>122838</v>
+        <v>2471</v>
       </c>
       <c r="M15" t="n">
-        <v>343173</v>
+        <v>1474</v>
       </c>
       <c r="N15" t="n">
-        <v>160800</v>
+        <v>1758</v>
       </c>
       <c r="O15" t="n">
-        <v>157788</v>
+        <v>1835</v>
       </c>
       <c r="P15" t="n">
-        <v>138041</v>
+        <v>1697</v>
       </c>
       <c r="Q15" t="n">
-        <v>120512</v>
+        <v>1884</v>
       </c>
       <c r="R15" t="n">
-        <v>126712</v>
+        <v>2094</v>
       </c>
       <c r="S15" t="n">
-        <v>113582</v>
+        <v>2681</v>
       </c>
       <c r="T15" t="n">
-        <v>130444</v>
+        <v>7586</v>
       </c>
       <c r="U15" t="n">
-        <v>1256808</v>
+        <v>1676</v>
       </c>
       <c r="V15" t="n">
-        <v>120906</v>
+        <v>846</v>
       </c>
       <c r="W15" t="n">
-        <v>58469</v>
+        <v>1145</v>
       </c>
       <c r="X15" t="n">
-        <v>57123</v>
+        <v>1285</v>
       </c>
       <c r="Y15" t="n">
-        <v>54592</v>
+        <v>1376</v>
       </c>
       <c r="Z15" t="n">
-        <v>49171</v>
+        <v>1767</v>
       </c>
       <c r="AA15" t="n">
-        <v>117344</v>
+        <v>1201</v>
       </c>
       <c r="AB15" t="n">
-        <v>37901</v>
+        <v>1435</v>
       </c>
       <c r="AC15" t="n">
-        <v>36589</v>
+        <v>1722</v>
       </c>
       <c r="AD15" t="n">
-        <v>39844</v>
+        <v>3990</v>
       </c>
       <c r="AE15" t="n">
-        <v>295662</v>
+        <v>1732</v>
       </c>
       <c r="AF15" t="n">
-        <v>118197</v>
+        <v>888</v>
       </c>
       <c r="AG15" t="n">
-        <v>64116</v>
+        <v>1036</v>
       </c>
       <c r="AH15" t="n">
-        <v>63855</v>
+        <v>1207</v>
       </c>
       <c r="AI15" t="n">
-        <v>59593</v>
+        <v>1503</v>
       </c>
       <c r="AJ15" t="n">
-        <v>64972</v>
+        <v>1558</v>
       </c>
       <c r="AK15" t="n">
-        <v>116669</v>
+        <v>1390</v>
       </c>
       <c r="AL15" t="n">
-        <v>59649</v>
+        <v>1401</v>
       </c>
       <c r="AM15" t="n">
-        <v>48578</v>
+        <v>1608</v>
       </c>
       <c r="AN15" t="n">
-        <v>54782</v>
+        <v>4600</v>
       </c>
       <c r="AO15" t="n">
-        <v>455118</v>
+        <v>1679</v>
       </c>
       <c r="AP15" t="n">
-        <v>116121</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>113745</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LPC 18:2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 17:0 (IS)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19568</v>
       </c>
       <c r="C16" t="n">
-        <v>150750</v>
+        <v>16128</v>
       </c>
       <c r="D16" t="n">
-        <v>129316</v>
+        <v>16316</v>
       </c>
       <c r="E16" t="n">
-        <v>126323</v>
+        <v>15724</v>
       </c>
       <c r="F16" t="n">
-        <v>126972</v>
+        <v>16072</v>
       </c>
       <c r="G16" t="n">
-        <v>123809</v>
+        <v>15816</v>
       </c>
       <c r="H16" t="n">
-        <v>125955</v>
+        <v>16209</v>
       </c>
       <c r="I16" t="n">
-        <v>124474</v>
+        <v>15804</v>
       </c>
       <c r="J16" t="n">
-        <v>125087</v>
+        <v>16211</v>
       </c>
       <c r="K16" t="n">
-        <v>122849</v>
+        <v>15969</v>
       </c>
       <c r="L16" t="n">
-        <v>122838</v>
+        <v>17130</v>
       </c>
       <c r="M16" t="n">
-        <v>343173</v>
+        <v>12146</v>
       </c>
       <c r="N16" t="n">
-        <v>160800</v>
+        <v>14719</v>
       </c>
       <c r="O16" t="n">
-        <v>157788</v>
+        <v>16054</v>
       </c>
       <c r="P16" t="n">
-        <v>138041</v>
+        <v>16155</v>
       </c>
       <c r="Q16" t="n">
-        <v>120512</v>
+        <v>16712</v>
       </c>
       <c r="R16" t="n">
-        <v>126712</v>
+        <v>16879</v>
       </c>
       <c r="S16" t="n">
-        <v>113582</v>
+        <v>23067</v>
       </c>
       <c r="T16" t="n">
-        <v>130444</v>
+        <v>62805</v>
       </c>
       <c r="U16" t="n">
-        <v>1256808</v>
+        <v>15513</v>
       </c>
       <c r="V16" t="n">
-        <v>120906</v>
+        <v>7434</v>
       </c>
       <c r="W16" t="n">
-        <v>58469</v>
+        <v>9214</v>
       </c>
       <c r="X16" t="n">
-        <v>57123</v>
+        <v>10916</v>
       </c>
       <c r="Y16" t="n">
-        <v>54592</v>
+        <v>11088</v>
       </c>
       <c r="Z16" t="n">
-        <v>49171</v>
+        <v>15128</v>
       </c>
       <c r="AA16" t="n">
-        <v>117344</v>
+        <v>10257</v>
       </c>
       <c r="AB16" t="n">
-        <v>37901</v>
+        <v>11782</v>
       </c>
       <c r="AC16" t="n">
-        <v>36589</v>
+        <v>13803</v>
       </c>
       <c r="AD16" t="n">
-        <v>39844</v>
+        <v>36314</v>
       </c>
       <c r="AE16" t="n">
-        <v>295662</v>
+        <v>15032</v>
       </c>
       <c r="AF16" t="n">
-        <v>118197</v>
+        <v>8627</v>
       </c>
       <c r="AG16" t="n">
-        <v>64116</v>
+        <v>10606</v>
       </c>
       <c r="AH16" t="n">
-        <v>63855</v>
+        <v>11182</v>
       </c>
       <c r="AI16" t="n">
-        <v>59593</v>
+        <v>14192</v>
       </c>
       <c r="AJ16" t="n">
-        <v>64972</v>
+        <v>14725</v>
       </c>
       <c r="AK16" t="n">
-        <v>116669</v>
+        <v>14767</v>
       </c>
       <c r="AL16" t="n">
-        <v>59649</v>
+        <v>13196</v>
       </c>
       <c r="AM16" t="n">
-        <v>48578</v>
+        <v>15999</v>
       </c>
       <c r="AN16" t="n">
-        <v>54782</v>
+        <v>45497</v>
       </c>
       <c r="AO16" t="n">
-        <v>455118</v>
+        <v>14665</v>
       </c>
       <c r="AP16" t="n">
-        <v>116121</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>113745</v>
+        <v>14241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LPC 22:5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 18:0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>393793</v>
       </c>
       <c r="C17" t="n">
-        <v>2751</v>
+        <v>351795</v>
       </c>
       <c r="D17" t="n">
-        <v>2375</v>
+        <v>345606</v>
       </c>
       <c r="E17" t="n">
-        <v>2360</v>
+        <v>344982</v>
       </c>
       <c r="F17" t="n">
-        <v>2355</v>
+        <v>340841</v>
       </c>
       <c r="G17" t="n">
-        <v>2408</v>
+        <v>341974</v>
       </c>
       <c r="H17" t="n">
-        <v>2322</v>
+        <v>340658</v>
       </c>
       <c r="I17" t="n">
-        <v>2338</v>
+        <v>341455</v>
       </c>
       <c r="J17" t="n">
-        <v>2364</v>
+        <v>339573</v>
       </c>
       <c r="K17" t="n">
-        <v>2155</v>
+        <v>339050</v>
       </c>
       <c r="L17" t="n">
-        <v>2103</v>
+        <v>360131</v>
       </c>
       <c r="M17" t="n">
-        <v>4145</v>
+        <v>246812</v>
       </c>
       <c r="N17" t="n">
-        <v>2017</v>
+        <v>310889</v>
       </c>
       <c r="O17" t="n">
-        <v>2155</v>
+        <v>341266</v>
       </c>
       <c r="P17" t="n">
-        <v>2019</v>
+        <v>329799</v>
       </c>
       <c r="Q17" t="n">
-        <v>2248</v>
+        <v>367434</v>
       </c>
       <c r="R17" t="n">
-        <v>2006</v>
+        <v>385171</v>
       </c>
       <c r="S17" t="n">
-        <v>2152</v>
+        <v>542878</v>
       </c>
       <c r="T17" t="n">
-        <v>2280</v>
+        <v>1307440</v>
       </c>
       <c r="U17" t="n">
-        <v>12734</v>
+        <v>326884</v>
       </c>
       <c r="V17" t="n">
-        <v>2188</v>
+        <v>153897</v>
       </c>
       <c r="W17" t="n">
-        <v>1010</v>
+        <v>195731</v>
       </c>
       <c r="X17" t="n">
-        <v>1137</v>
+        <v>234546</v>
       </c>
       <c r="Y17" t="n">
-        <v>1234</v>
+        <v>246223</v>
       </c>
       <c r="Z17" t="n">
-        <v>1195</v>
+        <v>316368</v>
       </c>
       <c r="AA17" t="n">
-        <v>2271</v>
+        <v>223373</v>
       </c>
       <c r="AB17" t="n">
-        <v>963</v>
+        <v>257914</v>
       </c>
       <c r="AC17" t="n">
-        <v>1342</v>
+        <v>331910</v>
       </c>
       <c r="AD17" t="n">
-        <v>1374</v>
+        <v>846623</v>
       </c>
       <c r="AE17" t="n">
-        <v>5063</v>
+        <v>316596</v>
       </c>
       <c r="AF17" t="n">
-        <v>2214</v>
+        <v>144083</v>
       </c>
       <c r="AG17" t="n">
-        <v>1444</v>
+        <v>193216</v>
       </c>
       <c r="AH17" t="n">
-        <v>1665</v>
+        <v>214944</v>
       </c>
       <c r="AI17" t="n">
-        <v>1843</v>
+        <v>266676</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2096</v>
+        <v>311384</v>
       </c>
       <c r="AK17" t="n">
-        <v>2217</v>
+        <v>291182</v>
       </c>
       <c r="AL17" t="n">
-        <v>2078</v>
+        <v>261923</v>
       </c>
       <c r="AM17" t="n">
-        <v>2008</v>
+        <v>331407</v>
       </c>
       <c r="AN17" t="n">
-        <v>2173</v>
+        <v>929551</v>
       </c>
       <c r="AO17" t="n">
-        <v>9267</v>
+        <v>310229</v>
       </c>
       <c r="AP17" t="n">
-        <v>2125</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>2130</v>
+        <v>304741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LPC 22:5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 20:1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3258</v>
       </c>
       <c r="C18" t="n">
-        <v>2751</v>
+        <v>2851</v>
       </c>
       <c r="D18" t="n">
-        <v>2375</v>
+        <v>2807</v>
       </c>
       <c r="E18" t="n">
+        <v>2861</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2785</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2738</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2766</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2718</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2719</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2713</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2860</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2073</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2932</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3327</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2589</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3782</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4190</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5899</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10184</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2723</v>
+      </c>
+      <c r="V18" t="n">
+        <v>920</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1843</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2584</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2079</v>
+      </c>
+      <c r="AB18" t="n">
         <v>2360</v>
       </c>
-      <c r="F18" t="n">
-        <v>2355</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2408</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2322</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2338</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2364</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2155</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2103</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4145</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2017</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2155</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2019</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2248</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2006</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2152</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2280</v>
-      </c>
-      <c r="U18" t="n">
-        <v>12734</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2188</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1010</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1137</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1234</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1195</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2271</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>963</v>
-      </c>
       <c r="AC18" t="n">
-        <v>1342</v>
+        <v>3156</v>
       </c>
       <c r="AD18" t="n">
-        <v>1374</v>
+        <v>4204</v>
       </c>
       <c r="AE18" t="n">
-        <v>5063</v>
+        <v>2670</v>
       </c>
       <c r="AF18" t="n">
-        <v>2214</v>
+        <v>1049</v>
       </c>
       <c r="AG18" t="n">
-        <v>1444</v>
+        <v>1477</v>
       </c>
       <c r="AH18" t="n">
-        <v>1665</v>
+        <v>1723</v>
       </c>
       <c r="AI18" t="n">
-        <v>1843</v>
+        <v>2206</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2096</v>
+        <v>2520</v>
       </c>
       <c r="AK18" t="n">
-        <v>2217</v>
+        <v>2460</v>
       </c>
       <c r="AL18" t="n">
-        <v>2078</v>
+        <v>2550</v>
       </c>
       <c r="AM18" t="n">
-        <v>2008</v>
+        <v>2934</v>
       </c>
       <c r="AN18" t="n">
-        <v>2173</v>
+        <v>5862</v>
       </c>
       <c r="AO18" t="n">
-        <v>9267</v>
+        <v>2599</v>
       </c>
       <c r="AP18" t="n">
-        <v>2125</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2130</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LPC 17:1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 19:0 (IS)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1507</v>
       </c>
       <c r="C19" t="n">
-        <v>2956</v>
+        <v>1217</v>
       </c>
       <c r="D19" t="n">
-        <v>2739</v>
+        <v>1199</v>
       </c>
       <c r="E19" t="n">
-        <v>2712</v>
+        <v>1198</v>
       </c>
       <c r="F19" t="n">
-        <v>2531</v>
+        <v>1116</v>
       </c>
       <c r="G19" t="n">
-        <v>2729</v>
+        <v>1182</v>
       </c>
       <c r="H19" t="n">
-        <v>2464</v>
+        <v>1135</v>
       </c>
       <c r="I19" t="n">
-        <v>2509</v>
+        <v>1114</v>
       </c>
       <c r="J19" t="n">
-        <v>2614</v>
+        <v>1148</v>
       </c>
       <c r="K19" t="n">
-        <v>2584</v>
+        <v>1150</v>
       </c>
       <c r="L19" t="n">
-        <v>2502</v>
+        <v>1294</v>
       </c>
       <c r="M19" t="n">
-        <v>3522</v>
+        <v>913</v>
       </c>
       <c r="N19" t="n">
-        <v>2227</v>
+        <v>1074</v>
       </c>
       <c r="O19" t="n">
-        <v>2523</v>
+        <v>1207</v>
       </c>
       <c r="P19" t="n">
-        <v>2610</v>
+        <v>1087</v>
       </c>
       <c r="Q19" t="n">
-        <v>2564</v>
+        <v>1325</v>
       </c>
       <c r="R19" t="n">
-        <v>2839</v>
+        <v>1427</v>
       </c>
       <c r="S19" t="n">
-        <v>2985</v>
+        <v>1851</v>
       </c>
       <c r="T19" t="n">
-        <v>3390</v>
+        <v>4347</v>
       </c>
       <c r="U19" t="n">
-        <v>12535</v>
+        <v>1103</v>
       </c>
       <c r="V19" t="n">
-        <v>2505</v>
+        <v>512</v>
       </c>
       <c r="W19" t="n">
-        <v>1308</v>
+        <v>637</v>
       </c>
       <c r="X19" t="n">
-        <v>1587</v>
+        <v>775</v>
       </c>
       <c r="Y19" t="n">
-        <v>1825</v>
+        <v>816</v>
       </c>
       <c r="Z19" t="n">
-        <v>1598</v>
+        <v>1047</v>
       </c>
       <c r="AA19" t="n">
-        <v>2467</v>
+        <v>739</v>
       </c>
       <c r="AB19" t="n">
-        <v>1556</v>
+        <v>817</v>
       </c>
       <c r="AC19" t="n">
-        <v>1556</v>
+        <v>1062</v>
       </c>
       <c r="AD19" t="n">
-        <v>1745</v>
+        <v>2243</v>
       </c>
       <c r="AE19" t="n">
-        <v>6327</v>
+        <v>1066</v>
       </c>
       <c r="AF19" t="n">
-        <v>2386</v>
+        <v>624</v>
       </c>
       <c r="AG19" t="n">
-        <v>1258</v>
+        <v>697</v>
       </c>
       <c r="AH19" t="n">
-        <v>1512</v>
+        <v>769</v>
       </c>
       <c r="AI19" t="n">
-        <v>1640</v>
+        <v>1003</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1888</v>
+        <v>1044</v>
       </c>
       <c r="AK19" t="n">
-        <v>2408</v>
+        <v>1138</v>
       </c>
       <c r="AL19" t="n">
-        <v>1903</v>
+        <v>1057</v>
       </c>
       <c r="AM19" t="n">
-        <v>1818</v>
+        <v>1206</v>
       </c>
       <c r="AN19" t="n">
-        <v>1857</v>
+        <v>2865</v>
       </c>
       <c r="AO19" t="n">
-        <v>7039</v>
+        <v>1005</v>
       </c>
       <c r="AP19" t="n">
-        <v>2340</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2386</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LPC 17:1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>LPC 20:0 (IS)</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14599</v>
+      </c>
       <c r="C20" t="n">
-        <v>2956</v>
+        <v>12752</v>
       </c>
       <c r="D20" t="n">
-        <v>2739</v>
+        <v>12620</v>
       </c>
       <c r="E20" t="n">
-        <v>2712</v>
+        <v>12936</v>
       </c>
       <c r="F20" t="n">
-        <v>2531</v>
+        <v>12720</v>
       </c>
       <c r="G20" t="n">
-        <v>2729</v>
+        <v>12310</v>
       </c>
       <c r="H20" t="n">
-        <v>2464</v>
+        <v>12159</v>
       </c>
       <c r="I20" t="n">
-        <v>2509</v>
+        <v>12428</v>
       </c>
       <c r="J20" t="n">
-        <v>2614</v>
+        <v>12273</v>
       </c>
       <c r="K20" t="n">
-        <v>2584</v>
+        <v>12212</v>
       </c>
       <c r="L20" t="n">
-        <v>2502</v>
+        <v>12841</v>
       </c>
       <c r="M20" t="n">
-        <v>3522</v>
+        <v>11750</v>
       </c>
       <c r="N20" t="n">
-        <v>2227</v>
+        <v>12239</v>
       </c>
       <c r="O20" t="n">
-        <v>2523</v>
+        <v>12643</v>
       </c>
       <c r="P20" t="n">
-        <v>2610</v>
+        <v>11786</v>
       </c>
       <c r="Q20" t="n">
-        <v>2564</v>
+        <v>12711</v>
       </c>
       <c r="R20" t="n">
-        <v>2839</v>
+        <v>12846</v>
       </c>
       <c r="S20" t="n">
-        <v>2985</v>
+        <v>14347</v>
       </c>
       <c r="T20" t="n">
-        <v>3390</v>
+        <v>18912</v>
       </c>
       <c r="U20" t="n">
-        <v>12535</v>
+        <v>11915</v>
       </c>
       <c r="V20" t="n">
-        <v>2505</v>
+        <v>10767</v>
       </c>
       <c r="W20" t="n">
-        <v>1308</v>
+        <v>10297</v>
       </c>
       <c r="X20" t="n">
-        <v>1587</v>
+        <v>11096</v>
       </c>
       <c r="Y20" t="n">
-        <v>1825</v>
+        <v>11197</v>
       </c>
       <c r="Z20" t="n">
-        <v>1598</v>
+        <v>11307</v>
       </c>
       <c r="AA20" t="n">
-        <v>2467</v>
+        <v>10924</v>
       </c>
       <c r="AB20" t="n">
-        <v>1556</v>
+        <v>11037</v>
       </c>
       <c r="AC20" t="n">
-        <v>1556</v>
+        <v>11851</v>
       </c>
       <c r="AD20" t="n">
-        <v>1745</v>
+        <v>12864</v>
       </c>
       <c r="AE20" t="n">
-        <v>6327</v>
+        <v>11306</v>
       </c>
       <c r="AF20" t="n">
-        <v>2386</v>
+        <v>10677</v>
       </c>
       <c r="AG20" t="n">
-        <v>1258</v>
+        <v>10544</v>
       </c>
       <c r="AH20" t="n">
-        <v>1512</v>
+        <v>10684</v>
       </c>
       <c r="AI20" t="n">
-        <v>1640</v>
+        <v>11308</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1888</v>
+        <v>10999</v>
       </c>
       <c r="AK20" t="n">
-        <v>2408</v>
+        <v>11185</v>
       </c>
       <c r="AL20" t="n">
-        <v>1903</v>
+        <v>11050</v>
       </c>
       <c r="AM20" t="n">
-        <v>1818</v>
+        <v>11648</v>
       </c>
       <c r="AN20" t="n">
-        <v>1857</v>
+        <v>16232</v>
       </c>
       <c r="AO20" t="n">
-        <v>7039</v>
+        <v>10996</v>
       </c>
       <c r="AP20" t="n">
-        <v>2340</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>2386</v>
+        <v>10945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LPC 20:3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 22:1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>192</v>
       </c>
       <c r="C21" t="n">
-        <v>14992</v>
+        <v>165</v>
       </c>
       <c r="D21" t="n">
-        <v>13338</v>
+        <v>136</v>
       </c>
       <c r="E21" t="n">
-        <v>13556</v>
+        <v>175</v>
       </c>
       <c r="F21" t="n">
-        <v>13173</v>
+        <v>181</v>
       </c>
       <c r="G21" t="n">
-        <v>13063</v>
+        <v>150</v>
       </c>
       <c r="H21" t="n">
-        <v>13045</v>
+        <v>156</v>
       </c>
       <c r="I21" t="n">
-        <v>13185</v>
+        <v>102</v>
       </c>
       <c r="J21" t="n">
-        <v>13645</v>
+        <v>134</v>
       </c>
       <c r="K21" t="n">
-        <v>13332</v>
+        <v>141</v>
       </c>
       <c r="L21" t="n">
-        <v>13221</v>
+        <v>161</v>
       </c>
       <c r="M21" t="n">
-        <v>23241</v>
+        <v>140</v>
       </c>
       <c r="N21" t="n">
-        <v>12698</v>
+        <v>163</v>
       </c>
       <c r="O21" t="n">
-        <v>12597</v>
+        <v>137</v>
       </c>
       <c r="P21" t="n">
-        <v>11808</v>
+        <v>132</v>
       </c>
       <c r="Q21" t="n">
-        <v>12467</v>
+        <v>204</v>
       </c>
       <c r="R21" t="n">
-        <v>12252</v>
+        <v>195</v>
       </c>
       <c r="S21" t="n">
-        <v>12163</v>
+        <v>260</v>
       </c>
       <c r="T21" t="n">
-        <v>13416</v>
+        <v>517</v>
       </c>
       <c r="U21" t="n">
-        <v>75426</v>
+        <v>193</v>
       </c>
       <c r="V21" t="n">
-        <v>12503</v>
+        <v>96</v>
       </c>
       <c r="W21" t="n">
-        <v>7547</v>
+        <v>93</v>
       </c>
       <c r="X21" t="n">
-        <v>8384</v>
+        <v>119</v>
       </c>
       <c r="Y21" t="n">
-        <v>8516</v>
+        <v>147</v>
       </c>
       <c r="Z21" t="n">
-        <v>8188</v>
+        <v>127</v>
       </c>
       <c r="AA21" t="n">
-        <v>12070</v>
+        <v>103</v>
       </c>
       <c r="AB21" t="n">
-        <v>6875</v>
+        <v>151</v>
       </c>
       <c r="AC21" t="n">
-        <v>7810</v>
+        <v>199</v>
       </c>
       <c r="AD21" t="n">
-        <v>8057</v>
+        <v>291</v>
       </c>
       <c r="AE21" t="n">
-        <v>35606</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="n">
-        <v>12659</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="n">
-        <v>6969</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="n">
-        <v>7821</v>
+        <v>101</v>
       </c>
       <c r="AI21" t="n">
-        <v>7825</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9164</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>12739</v>
+        <v>124</v>
       </c>
       <c r="AL21" t="n">
-        <v>9065</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="n">
-        <v>8568</v>
+        <v>159</v>
       </c>
       <c r="AN21" t="n">
-        <v>9593</v>
+        <v>351</v>
       </c>
       <c r="AO21" t="n">
-        <v>40849</v>
+        <v>125</v>
       </c>
       <c r="AP21" t="n">
-        <v>12565</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>12476</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LPC 20:3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>LPC 22:0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>266</v>
       </c>
       <c r="C22" t="n">
-        <v>14992</v>
+        <v>178</v>
       </c>
       <c r="D22" t="n">
-        <v>13338</v>
+        <v>227</v>
       </c>
       <c r="E22" t="n">
-        <v>13556</v>
+        <v>208</v>
       </c>
       <c r="F22" t="n">
-        <v>13173</v>
+        <v>235</v>
       </c>
       <c r="G22" t="n">
-        <v>13063</v>
+        <v>246</v>
       </c>
       <c r="H22" t="n">
-        <v>13045</v>
+        <v>234</v>
       </c>
       <c r="I22" t="n">
-        <v>13185</v>
+        <v>196</v>
       </c>
       <c r="J22" t="n">
-        <v>13645</v>
+        <v>205</v>
       </c>
       <c r="K22" t="n">
-        <v>13332</v>
+        <v>240</v>
       </c>
       <c r="L22" t="n">
-        <v>13221</v>
+        <v>336</v>
       </c>
       <c r="M22" t="n">
-        <v>23241</v>
+        <v>212</v>
       </c>
       <c r="N22" t="n">
-        <v>12698</v>
+        <v>268</v>
       </c>
       <c r="O22" t="n">
-        <v>12597</v>
+        <v>291</v>
       </c>
       <c r="P22" t="n">
-        <v>11808</v>
+        <v>228</v>
       </c>
       <c r="Q22" t="n">
-        <v>12467</v>
+        <v>321</v>
       </c>
       <c r="R22" t="n">
-        <v>12252</v>
+        <v>330</v>
       </c>
       <c r="S22" t="n">
-        <v>12163</v>
+        <v>443</v>
       </c>
       <c r="T22" t="n">
-        <v>13416</v>
+        <v>1094</v>
       </c>
       <c r="U22" t="n">
-        <v>75426</v>
+        <v>225</v>
       </c>
       <c r="V22" t="n">
-        <v>12503</v>
+        <v>90</v>
       </c>
       <c r="W22" t="n">
-        <v>7547</v>
+        <v>116</v>
       </c>
       <c r="X22" t="n">
-        <v>8384</v>
+        <v>134</v>
       </c>
       <c r="Y22" t="n">
-        <v>8516</v>
+        <v>109</v>
       </c>
       <c r="Z22" t="n">
-        <v>8188</v>
+        <v>228</v>
       </c>
       <c r="AA22" t="n">
-        <v>12070</v>
+        <v>132</v>
       </c>
       <c r="AB22" t="n">
-        <v>6875</v>
+        <v>128</v>
       </c>
       <c r="AC22" t="n">
-        <v>7810</v>
+        <v>146</v>
       </c>
       <c r="AD22" t="n">
-        <v>8057</v>
+        <v>315</v>
       </c>
       <c r="AE22" t="n">
-        <v>35606</v>
+        <v>244</v>
       </c>
       <c r="AF22" t="n">
-        <v>12659</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="n">
-        <v>6969</v>
+        <v>138</v>
       </c>
       <c r="AH22" t="n">
-        <v>7821</v>
+        <v>134</v>
       </c>
       <c r="AI22" t="n">
-        <v>7825</v>
+        <v>156</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9164</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="n">
-        <v>12739</v>
+        <v>154</v>
       </c>
       <c r="AL22" t="n">
-        <v>9065</v>
+        <v>181</v>
       </c>
       <c r="AM22" t="n">
-        <v>8568</v>
+        <v>192</v>
       </c>
       <c r="AN22" t="n">
-        <v>9593</v>
+        <v>525</v>
       </c>
       <c r="AO22" t="n">
-        <v>40849</v>
+        <v>205</v>
       </c>
       <c r="AP22" t="n">
-        <v>12565</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>12476</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LPC 16:0</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>LPC 24:0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>399</v>
       </c>
       <c r="C23" t="n">
-        <v>1264430</v>
+        <v>361</v>
       </c>
       <c r="D23" t="n">
-        <v>1095949</v>
+        <v>437</v>
       </c>
       <c r="E23" t="n">
-        <v>1078293</v>
+        <v>353</v>
       </c>
       <c r="F23" t="n">
-        <v>1071091</v>
+        <v>308</v>
       </c>
       <c r="G23" t="n">
-        <v>1070266</v>
+        <v>380</v>
       </c>
       <c r="H23" t="n">
-        <v>1070593</v>
+        <v>365</v>
       </c>
       <c r="I23" t="n">
-        <v>1069576</v>
+        <v>407</v>
       </c>
       <c r="J23" t="n">
-        <v>1062512</v>
+        <v>344</v>
       </c>
       <c r="K23" t="n">
-        <v>1061363</v>
+        <v>357</v>
       </c>
       <c r="L23" t="n">
-        <v>1053845</v>
+        <v>763</v>
       </c>
       <c r="M23" t="n">
-        <v>1079079</v>
+        <v>424</v>
       </c>
       <c r="N23" t="n">
-        <v>741852</v>
+        <v>438</v>
       </c>
       <c r="O23" t="n">
-        <v>898303</v>
+        <v>528</v>
       </c>
       <c r="P23" t="n">
-        <v>961245</v>
+        <v>360</v>
       </c>
       <c r="Q23" t="n">
-        <v>1034325</v>
+        <v>422</v>
       </c>
       <c r="R23" t="n">
-        <v>1041383</v>
+        <v>489</v>
       </c>
       <c r="S23" t="n">
-        <v>1076469</v>
+        <v>588</v>
       </c>
       <c r="T23" t="n">
-        <v>1335303</v>
+        <v>2290</v>
       </c>
       <c r="U23" t="n">
-        <v>3113660</v>
+        <v>417</v>
       </c>
       <c r="V23" t="n">
-        <v>1042120</v>
+        <v>228</v>
       </c>
       <c r="W23" t="n">
-        <v>529263</v>
+        <v>188</v>
       </c>
       <c r="X23" t="n">
-        <v>674696</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="n">
-        <v>754677</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="n">
-        <v>781895</v>
+        <v>364</v>
       </c>
       <c r="AA23" t="n">
-        <v>1008846</v>
+        <v>167</v>
       </c>
       <c r="AB23" t="n">
-        <v>723924</v>
+        <v>226</v>
       </c>
       <c r="AC23" t="n">
-        <v>801013</v>
+        <v>167</v>
       </c>
       <c r="AD23" t="n">
-        <v>910587</v>
+        <v>766</v>
       </c>
       <c r="AE23" t="n">
-        <v>2403221</v>
+        <v>353</v>
       </c>
       <c r="AF23" t="n">
-        <v>1017377</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="n">
-        <v>549348</v>
+        <v>184</v>
       </c>
       <c r="AH23" t="n">
-        <v>717729</v>
+        <v>268</v>
       </c>
       <c r="AI23" t="n">
-        <v>762926</v>
+        <v>238</v>
       </c>
       <c r="AJ23" t="n">
-        <v>953525</v>
+        <v>363</v>
       </c>
       <c r="AK23" t="n">
-        <v>996091</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="n">
-        <v>1004592</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="n">
-        <v>907473</v>
+        <v>274</v>
       </c>
       <c r="AN23" t="n">
-        <v>1048233</v>
+        <v>932</v>
       </c>
       <c r="AO23" t="n">
-        <v>2711402</v>
+        <v>349</v>
       </c>
       <c r="AP23" t="n">
-        <v>1004758</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>979080</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LPC 16:0</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/8:0 STD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3528</v>
       </c>
       <c r="C24" t="n">
-        <v>1264430</v>
+        <v>3233</v>
       </c>
       <c r="D24" t="n">
-        <v>1095949</v>
+        <v>3141</v>
       </c>
       <c r="E24" t="n">
-        <v>1078293</v>
+        <v>3177</v>
       </c>
       <c r="F24" t="n">
-        <v>1071091</v>
+        <v>3194</v>
       </c>
       <c r="G24" t="n">
-        <v>1070266</v>
+        <v>3140</v>
       </c>
       <c r="H24" t="n">
-        <v>1070593</v>
+        <v>3050</v>
       </c>
       <c r="I24" t="n">
-        <v>1069576</v>
+        <v>3157</v>
       </c>
       <c r="J24" t="n">
-        <v>1062512</v>
+        <v>3113</v>
       </c>
       <c r="K24" t="n">
-        <v>1061363</v>
+        <v>3047</v>
       </c>
       <c r="L24" t="n">
-        <v>1053845</v>
+        <v>3091</v>
       </c>
       <c r="M24" t="n">
-        <v>1079079</v>
+        <v>2996</v>
       </c>
       <c r="N24" t="n">
-        <v>741852</v>
+        <v>2961</v>
       </c>
       <c r="O24" t="n">
-        <v>898303</v>
+        <v>3031</v>
       </c>
       <c r="P24" t="n">
-        <v>961245</v>
+        <v>2944</v>
       </c>
       <c r="Q24" t="n">
-        <v>1034325</v>
+        <v>3081</v>
       </c>
       <c r="R24" t="n">
-        <v>1041383</v>
+        <v>2988</v>
       </c>
       <c r="S24" t="n">
-        <v>1076469</v>
+        <v>3293</v>
       </c>
       <c r="T24" t="n">
-        <v>1335303</v>
+        <v>4255</v>
       </c>
       <c r="U24" t="n">
-        <v>3113660</v>
+        <v>2994</v>
       </c>
       <c r="V24" t="n">
-        <v>1042120</v>
+        <v>2792</v>
       </c>
       <c r="W24" t="n">
-        <v>529263</v>
+        <v>2837</v>
       </c>
       <c r="X24" t="n">
-        <v>674696</v>
+        <v>2855</v>
       </c>
       <c r="Y24" t="n">
-        <v>754677</v>
+        <v>2915</v>
       </c>
       <c r="Z24" t="n">
-        <v>781895</v>
+        <v>2893</v>
       </c>
       <c r="AA24" t="n">
-        <v>1008846</v>
+        <v>2988</v>
       </c>
       <c r="AB24" t="n">
-        <v>723924</v>
+        <v>2847</v>
       </c>
       <c r="AC24" t="n">
-        <v>801013</v>
+        <v>2962</v>
       </c>
       <c r="AD24" t="n">
-        <v>910587</v>
+        <v>3362</v>
       </c>
       <c r="AE24" t="n">
-        <v>2403221</v>
+        <v>2974</v>
       </c>
       <c r="AF24" t="n">
-        <v>1017377</v>
+        <v>3013</v>
       </c>
       <c r="AG24" t="n">
-        <v>549348</v>
+        <v>2948</v>
       </c>
       <c r="AH24" t="n">
-        <v>717729</v>
+        <v>3014</v>
       </c>
       <c r="AI24" t="n">
-        <v>762926</v>
+        <v>3137</v>
       </c>
       <c r="AJ24" t="n">
-        <v>953525</v>
+        <v>2934</v>
       </c>
       <c r="AK24" t="n">
-        <v>996091</v>
+        <v>2959</v>
       </c>
       <c r="AL24" t="n">
-        <v>1004592</v>
+        <v>2954</v>
       </c>
       <c r="AM24" t="n">
-        <v>907473</v>
+        <v>2976</v>
       </c>
       <c r="AN24" t="n">
-        <v>1048233</v>
+        <v>4246</v>
       </c>
       <c r="AO24" t="n">
-        <v>2711402</v>
+        <v>2879</v>
       </c>
       <c r="AP24" t="n">
-        <v>1004758</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>979080</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LPC 18:1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/16:0d3 (IS)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1719</v>
       </c>
       <c r="C25" t="n">
-        <v>198027</v>
+        <v>1764</v>
       </c>
       <c r="D25" t="n">
-        <v>169924</v>
+        <v>1874</v>
       </c>
       <c r="E25" t="n">
-        <v>168576</v>
+        <v>1667</v>
       </c>
       <c r="F25" t="n">
-        <v>164075</v>
+        <v>1578</v>
       </c>
       <c r="G25" t="n">
-        <v>163720</v>
+        <v>1745</v>
       </c>
       <c r="H25" t="n">
-        <v>163689</v>
+        <v>2114</v>
       </c>
       <c r="I25" t="n">
-        <v>165981</v>
+        <v>1875</v>
       </c>
       <c r="J25" t="n">
-        <v>164306</v>
+        <v>1286</v>
       </c>
       <c r="K25" t="n">
-        <v>165123</v>
+        <v>1671</v>
       </c>
       <c r="L25" t="n">
-        <v>161826</v>
+        <v>1818</v>
       </c>
       <c r="M25" t="n">
-        <v>298336</v>
+        <v>2249</v>
       </c>
       <c r="N25" t="n">
-        <v>176457</v>
+        <v>1963</v>
       </c>
       <c r="O25" t="n">
-        <v>202593</v>
+        <v>1873</v>
       </c>
       <c r="P25" t="n">
-        <v>202959</v>
+        <v>1647</v>
       </c>
       <c r="Q25" t="n">
-        <v>159609</v>
+        <v>2079</v>
       </c>
       <c r="R25" t="n">
-        <v>208127</v>
+        <v>2024</v>
       </c>
       <c r="S25" t="n">
-        <v>208956</v>
+        <v>2025</v>
       </c>
       <c r="T25" t="n">
-        <v>265124</v>
+        <v>688</v>
       </c>
       <c r="U25" t="n">
-        <v>1015923</v>
+        <v>1191</v>
       </c>
       <c r="V25" t="n">
-        <v>160920</v>
+        <v>2062</v>
       </c>
       <c r="W25" t="n">
-        <v>67337</v>
+        <v>1795</v>
       </c>
       <c r="X25" t="n">
-        <v>77590</v>
+        <v>1633</v>
       </c>
       <c r="Y25" t="n">
-        <v>84134</v>
+        <v>2185</v>
       </c>
       <c r="Z25" t="n">
-        <v>84600</v>
+        <v>1559</v>
       </c>
       <c r="AA25" t="n">
-        <v>154225</v>
+        <v>2154</v>
       </c>
       <c r="AB25" t="n">
-        <v>73349</v>
+        <v>2204</v>
       </c>
       <c r="AC25" t="n">
-        <v>78753</v>
+        <v>1820</v>
       </c>
       <c r="AD25" t="n">
-        <v>93682</v>
+        <v>1002</v>
       </c>
       <c r="AE25" t="n">
-        <v>326469</v>
+        <v>1629</v>
       </c>
       <c r="AF25" t="n">
-        <v>155408</v>
+        <v>2126</v>
       </c>
       <c r="AG25" t="n">
-        <v>73507</v>
+        <v>1781</v>
       </c>
       <c r="AH25" t="n">
-        <v>88197</v>
+        <v>2158</v>
       </c>
       <c r="AI25" t="n">
-        <v>92767</v>
+        <v>1908</v>
       </c>
       <c r="AJ25" t="n">
-        <v>110760</v>
+        <v>1309</v>
       </c>
       <c r="AK25" t="n">
-        <v>153251</v>
+        <v>1801</v>
       </c>
       <c r="AL25" t="n">
-        <v>111787</v>
+        <v>1633</v>
       </c>
       <c r="AM25" t="n">
-        <v>99314</v>
+        <v>2037</v>
       </c>
       <c r="AN25" t="n">
-        <v>118796</v>
+        <v>942</v>
       </c>
       <c r="AO25" t="n">
-        <v>437296</v>
+        <v>1554</v>
       </c>
       <c r="AP25" t="n">
-        <v>152598</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>150006</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LPC 18:1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/16:0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1346</v>
       </c>
       <c r="C26" t="n">
-        <v>198027</v>
+        <v>1246</v>
       </c>
       <c r="D26" t="n">
-        <v>169924</v>
+        <v>890</v>
       </c>
       <c r="E26" t="n">
-        <v>168576</v>
+        <v>1122</v>
       </c>
       <c r="F26" t="n">
-        <v>164075</v>
+        <v>1177</v>
       </c>
       <c r="G26" t="n">
-        <v>163720</v>
+        <v>1128</v>
       </c>
       <c r="H26" t="n">
-        <v>163689</v>
+        <v>1386</v>
       </c>
       <c r="I26" t="n">
-        <v>165981</v>
+        <v>1098</v>
       </c>
       <c r="J26" t="n">
-        <v>164306</v>
+        <v>1337</v>
       </c>
       <c r="K26" t="n">
-        <v>165123</v>
+        <v>1358</v>
       </c>
       <c r="L26" t="n">
-        <v>161826</v>
+        <v>1806</v>
       </c>
       <c r="M26" t="n">
-        <v>298336</v>
+        <v>1379</v>
       </c>
       <c r="N26" t="n">
-        <v>176457</v>
+        <v>1490</v>
       </c>
       <c r="O26" t="n">
-        <v>202593</v>
+        <v>1317</v>
       </c>
       <c r="P26" t="n">
-        <v>202959</v>
+        <v>1224</v>
       </c>
       <c r="Q26" t="n">
-        <v>159609</v>
+        <v>1190</v>
       </c>
       <c r="R26" t="n">
-        <v>208127</v>
+        <v>1246</v>
       </c>
       <c r="S26" t="n">
-        <v>208956</v>
+        <v>1285</v>
       </c>
       <c r="T26" t="n">
-        <v>265124</v>
+        <v>3213</v>
       </c>
       <c r="U26" t="n">
-        <v>1015923</v>
+        <v>1016</v>
       </c>
       <c r="V26" t="n">
-        <v>160920</v>
+        <v>769</v>
       </c>
       <c r="W26" t="n">
-        <v>67337</v>
+        <v>862</v>
       </c>
       <c r="X26" t="n">
-        <v>77590</v>
+        <v>842</v>
       </c>
       <c r="Y26" t="n">
-        <v>84134</v>
+        <v>701</v>
       </c>
       <c r="Z26" t="n">
-        <v>84600</v>
+        <v>1247</v>
       </c>
       <c r="AA26" t="n">
-        <v>154225</v>
+        <v>969</v>
       </c>
       <c r="AB26" t="n">
-        <v>73349</v>
+        <v>890</v>
       </c>
       <c r="AC26" t="n">
-        <v>78753</v>
+        <v>1284</v>
       </c>
       <c r="AD26" t="n">
-        <v>93682</v>
+        <v>1761</v>
       </c>
       <c r="AE26" t="n">
-        <v>326469</v>
+        <v>1277</v>
       </c>
       <c r="AF26" t="n">
-        <v>155408</v>
+        <v>1308</v>
       </c>
       <c r="AG26" t="n">
-        <v>73507</v>
+        <v>766</v>
       </c>
       <c r="AH26" t="n">
-        <v>88197</v>
+        <v>1089</v>
       </c>
       <c r="AI26" t="n">
-        <v>92767</v>
+        <v>1050</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110760</v>
+        <v>1244</v>
       </c>
       <c r="AK26" t="n">
-        <v>153251</v>
+        <v>1461</v>
       </c>
       <c r="AL26" t="n">
-        <v>111787</v>
+        <v>1073</v>
       </c>
       <c r="AM26" t="n">
-        <v>99314</v>
+        <v>1082</v>
       </c>
       <c r="AN26" t="n">
-        <v>118796</v>
+        <v>2588</v>
       </c>
       <c r="AO26" t="n">
-        <v>437296</v>
+        <v>1273</v>
       </c>
       <c r="AP26" t="n">
-        <v>152598</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>150006</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LPC 20:2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/18:0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>289</v>
       </c>
       <c r="C27" t="n">
-        <v>2211</v>
+        <v>195</v>
       </c>
       <c r="D27" t="n">
-        <v>1798</v>
+        <v>265</v>
       </c>
       <c r="E27" t="n">
-        <v>1845</v>
+        <v>229</v>
       </c>
       <c r="F27" t="n">
-        <v>1827</v>
+        <v>162</v>
       </c>
       <c r="G27" t="n">
-        <v>1707</v>
+        <v>317</v>
       </c>
       <c r="H27" t="n">
-        <v>1794</v>
+        <v>193</v>
       </c>
       <c r="I27" t="n">
-        <v>1752</v>
+        <v>149</v>
       </c>
       <c r="J27" t="n">
-        <v>1674</v>
+        <v>181</v>
       </c>
       <c r="K27" t="n">
-        <v>1798</v>
+        <v>298</v>
       </c>
       <c r="L27" t="n">
-        <v>1723</v>
+        <v>468</v>
       </c>
       <c r="M27" t="n">
-        <v>2471</v>
+        <v>267</v>
       </c>
       <c r="N27" t="n">
-        <v>1474</v>
+        <v>118</v>
       </c>
       <c r="O27" t="n">
-        <v>1758</v>
+        <v>143</v>
       </c>
       <c r="P27" t="n">
-        <v>1835</v>
+        <v>102</v>
       </c>
       <c r="Q27" t="n">
-        <v>1697</v>
+        <v>227</v>
       </c>
       <c r="R27" t="n">
-        <v>1884</v>
+        <v>113</v>
       </c>
       <c r="S27" t="n">
-        <v>2094</v>
+        <v>237</v>
       </c>
       <c r="T27" t="n">
-        <v>2681</v>
+        <v>412</v>
       </c>
       <c r="U27" t="n">
-        <v>7586</v>
+        <v>284</v>
       </c>
       <c r="V27" t="n">
-        <v>1676</v>
+        <v>120</v>
       </c>
       <c r="W27" t="n">
-        <v>846</v>
+        <v>125</v>
       </c>
       <c r="X27" t="n">
-        <v>1145</v>
+        <v>137</v>
       </c>
       <c r="Y27" t="n">
-        <v>1285</v>
+        <v>186</v>
       </c>
       <c r="Z27" t="n">
-        <v>1376</v>
+        <v>181</v>
       </c>
       <c r="AA27" t="n">
-        <v>1767</v>
+        <v>194</v>
       </c>
       <c r="AB27" t="n">
-        <v>1201</v>
+        <v>119</v>
       </c>
       <c r="AC27" t="n">
-        <v>1435</v>
+        <v>211</v>
       </c>
       <c r="AD27" t="n">
-        <v>1722</v>
+        <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>3990</v>
+        <v>122</v>
       </c>
       <c r="AF27" t="n">
-        <v>1732</v>
+        <v>139</v>
       </c>
       <c r="AG27" t="n">
-        <v>888</v>
+        <v>123</v>
       </c>
       <c r="AH27" t="n">
-        <v>1036</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="n">
-        <v>1207</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1503</v>
+        <v>268</v>
       </c>
       <c r="AK27" t="n">
-        <v>1558</v>
+        <v>99</v>
       </c>
       <c r="AL27" t="n">
-        <v>1390</v>
+        <v>115</v>
       </c>
       <c r="AM27" t="n">
-        <v>1401</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>1608</v>
+        <v>384</v>
       </c>
       <c r="AO27" t="n">
-        <v>4600</v>
+        <v>198</v>
       </c>
       <c r="AP27" t="n">
-        <v>1679</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>1708</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LPC 20:2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/20:0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>223</v>
       </c>
       <c r="C28" t="n">
-        <v>2211</v>
+        <v>121</v>
       </c>
       <c r="D28" t="n">
-        <v>1798</v>
+        <v>190</v>
       </c>
       <c r="E28" t="n">
-        <v>1845</v>
+        <v>155</v>
       </c>
       <c r="F28" t="n">
-        <v>1827</v>
+        <v>297</v>
       </c>
       <c r="G28" t="n">
-        <v>1707</v>
+        <v>203</v>
       </c>
       <c r="H28" t="n">
-        <v>1794</v>
+        <v>163</v>
       </c>
       <c r="I28" t="n">
-        <v>1752</v>
+        <v>217</v>
       </c>
       <c r="J28" t="n">
-        <v>1674</v>
+        <v>94</v>
       </c>
       <c r="K28" t="n">
-        <v>1798</v>
+        <v>90</v>
       </c>
       <c r="L28" t="n">
-        <v>1723</v>
+        <v>357</v>
       </c>
       <c r="M28" t="n">
-        <v>2471</v>
+        <v>190</v>
       </c>
       <c r="N28" t="n">
-        <v>1474</v>
+        <v>116</v>
       </c>
       <c r="O28" t="n">
-        <v>1758</v>
+        <v>112</v>
       </c>
       <c r="P28" t="n">
-        <v>1835</v>
+        <v>130</v>
       </c>
       <c r="Q28" t="n">
-        <v>1697</v>
+        <v>166</v>
       </c>
       <c r="R28" t="n">
-        <v>1884</v>
+        <v>68</v>
       </c>
       <c r="S28" t="n">
-        <v>2094</v>
+        <v>198</v>
       </c>
       <c r="T28" t="n">
-        <v>2681</v>
+        <v>779</v>
       </c>
       <c r="U28" t="n">
-        <v>7586</v>
+        <v>166</v>
       </c>
       <c r="V28" t="n">
-        <v>1676</v>
+        <v>108</v>
       </c>
       <c r="W28" t="n">
-        <v>846</v>
+        <v>167</v>
       </c>
       <c r="X28" t="n">
-        <v>1145</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="n">
-        <v>1285</v>
+        <v>105</v>
       </c>
       <c r="Z28" t="n">
-        <v>1376</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="n">
-        <v>1767</v>
+        <v>137</v>
       </c>
       <c r="AB28" t="n">
-        <v>1201</v>
+        <v>173</v>
       </c>
       <c r="AC28" t="n">
-        <v>1435</v>
+        <v>198</v>
       </c>
       <c r="AD28" t="n">
-        <v>1722</v>
+        <v>475</v>
       </c>
       <c r="AE28" t="n">
-        <v>3990</v>
+        <v>125</v>
       </c>
       <c r="AF28" t="n">
-        <v>1732</v>
+        <v>103</v>
       </c>
       <c r="AG28" t="n">
-        <v>888</v>
+        <v>64</v>
       </c>
       <c r="AH28" t="n">
-        <v>1036</v>
+        <v>108</v>
       </c>
       <c r="AI28" t="n">
-        <v>1207</v>
+        <v>53</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1503</v>
+        <v>119</v>
       </c>
       <c r="AK28" t="n">
-        <v>1558</v>
+        <v>33</v>
       </c>
       <c r="AL28" t="n">
-        <v>1390</v>
+        <v>73</v>
       </c>
       <c r="AM28" t="n">
-        <v>1401</v>
+        <v>49</v>
       </c>
       <c r="AN28" t="n">
-        <v>1608</v>
+        <v>393</v>
       </c>
       <c r="AO28" t="n">
-        <v>4600</v>
+        <v>133</v>
       </c>
       <c r="AP28" t="n">
-        <v>1679</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1708</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/22:0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2016</v>
       </c>
       <c r="C29" t="n">
-        <v>19568</v>
+        <v>1904</v>
       </c>
       <c r="D29" t="n">
-        <v>16128</v>
+        <v>2051</v>
       </c>
       <c r="E29" t="n">
-        <v>16316</v>
+        <v>1430</v>
       </c>
       <c r="F29" t="n">
-        <v>15724</v>
+        <v>1655</v>
       </c>
       <c r="G29" t="n">
-        <v>16072</v>
+        <v>1777</v>
       </c>
       <c r="H29" t="n">
-        <v>15816</v>
+        <v>1614</v>
       </c>
       <c r="I29" t="n">
-        <v>16209</v>
+        <v>1685</v>
       </c>
       <c r="J29" t="n">
-        <v>15804</v>
+        <v>1790</v>
       </c>
       <c r="K29" t="n">
-        <v>16211</v>
+        <v>1750</v>
       </c>
       <c r="L29" t="n">
-        <v>15969</v>
+        <v>4458</v>
       </c>
       <c r="M29" t="n">
-        <v>17130</v>
+        <v>1469</v>
       </c>
       <c r="N29" t="n">
-        <v>12146</v>
+        <v>1720</v>
       </c>
       <c r="O29" t="n">
-        <v>14719</v>
+        <v>1866</v>
       </c>
       <c r="P29" t="n">
-        <v>16054</v>
+        <v>1931</v>
       </c>
       <c r="Q29" t="n">
-        <v>16155</v>
+        <v>1513</v>
       </c>
       <c r="R29" t="n">
-        <v>16712</v>
+        <v>1875</v>
       </c>
       <c r="S29" t="n">
-        <v>16879</v>
+        <v>2361</v>
       </c>
       <c r="T29" t="n">
-        <v>23067</v>
+        <v>10315</v>
       </c>
       <c r="U29" t="n">
-        <v>62805</v>
+        <v>1604</v>
       </c>
       <c r="V29" t="n">
-        <v>15513</v>
+        <v>1351</v>
       </c>
       <c r="W29" t="n">
-        <v>7434</v>
+        <v>1374</v>
       </c>
       <c r="X29" t="n">
-        <v>9214</v>
+        <v>1507</v>
       </c>
       <c r="Y29" t="n">
-        <v>10916</v>
+        <v>1201</v>
       </c>
       <c r="Z29" t="n">
-        <v>11088</v>
+        <v>1621</v>
       </c>
       <c r="AA29" t="n">
-        <v>15128</v>
+        <v>996</v>
       </c>
       <c r="AB29" t="n">
-        <v>10257</v>
+        <v>1231</v>
       </c>
       <c r="AC29" t="n">
-        <v>11782</v>
+        <v>1772</v>
       </c>
       <c r="AD29" t="n">
-        <v>13803</v>
+        <v>4848</v>
       </c>
       <c r="AE29" t="n">
-        <v>36314</v>
+        <v>1471</v>
       </c>
       <c r="AF29" t="n">
-        <v>15032</v>
+        <v>974</v>
       </c>
       <c r="AG29" t="n">
-        <v>8627</v>
+        <v>1199</v>
       </c>
       <c r="AH29" t="n">
-        <v>10606</v>
+        <v>1148</v>
       </c>
       <c r="AI29" t="n">
-        <v>11182</v>
+        <v>1066</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14192</v>
+        <v>1565</v>
       </c>
       <c r="AK29" t="n">
-        <v>14725</v>
+        <v>1129</v>
       </c>
       <c r="AL29" t="n">
-        <v>14767</v>
+        <v>836</v>
       </c>
       <c r="AM29" t="n">
-        <v>13196</v>
+        <v>890</v>
       </c>
       <c r="AN29" t="n">
-        <v>15999</v>
+        <v>5225</v>
       </c>
       <c r="AO29" t="n">
-        <v>45497</v>
+        <v>1488</v>
       </c>
       <c r="AP29" t="n">
-        <v>14665</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>14241</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/24:1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1382</v>
       </c>
       <c r="C30" t="n">
-        <v>19568</v>
+        <v>1080</v>
       </c>
       <c r="D30" t="n">
-        <v>16128</v>
+        <v>1395</v>
       </c>
       <c r="E30" t="n">
-        <v>16316</v>
+        <v>1490</v>
       </c>
       <c r="F30" t="n">
-        <v>15724</v>
+        <v>1308</v>
       </c>
       <c r="G30" t="n">
-        <v>16072</v>
+        <v>1252</v>
       </c>
       <c r="H30" t="n">
-        <v>15816</v>
+        <v>1207</v>
       </c>
       <c r="I30" t="n">
-        <v>16209</v>
+        <v>1241</v>
       </c>
       <c r="J30" t="n">
-        <v>15804</v>
+        <v>991</v>
       </c>
       <c r="K30" t="n">
-        <v>16211</v>
+        <v>1307</v>
       </c>
       <c r="L30" t="n">
-        <v>15969</v>
+        <v>1868</v>
       </c>
       <c r="M30" t="n">
-        <v>17130</v>
+        <v>916</v>
       </c>
       <c r="N30" t="n">
-        <v>12146</v>
+        <v>1205</v>
       </c>
       <c r="O30" t="n">
-        <v>14719</v>
+        <v>910</v>
       </c>
       <c r="P30" t="n">
-        <v>16054</v>
+        <v>1062</v>
       </c>
       <c r="Q30" t="n">
-        <v>16155</v>
+        <v>1040</v>
       </c>
       <c r="R30" t="n">
-        <v>16712</v>
+        <v>1042</v>
       </c>
       <c r="S30" t="n">
-        <v>16879</v>
+        <v>1328</v>
       </c>
       <c r="T30" t="n">
-        <v>23067</v>
+        <v>6014</v>
       </c>
       <c r="U30" t="n">
-        <v>62805</v>
+        <v>958</v>
       </c>
       <c r="V30" t="n">
-        <v>15513</v>
+        <v>972</v>
       </c>
       <c r="W30" t="n">
-        <v>7434</v>
+        <v>936</v>
       </c>
       <c r="X30" t="n">
-        <v>9214</v>
+        <v>1054</v>
       </c>
       <c r="Y30" t="n">
-        <v>10916</v>
+        <v>1106</v>
       </c>
       <c r="Z30" t="n">
-        <v>11088</v>
+        <v>1067</v>
       </c>
       <c r="AA30" t="n">
-        <v>15128</v>
+        <v>1011</v>
       </c>
       <c r="AB30" t="n">
-        <v>10257</v>
+        <v>1026</v>
       </c>
       <c r="AC30" t="n">
-        <v>11782</v>
+        <v>1117</v>
       </c>
       <c r="AD30" t="n">
-        <v>13803</v>
+        <v>4091</v>
       </c>
       <c r="AE30" t="n">
-        <v>36314</v>
+        <v>1275</v>
       </c>
       <c r="AF30" t="n">
-        <v>15032</v>
+        <v>610</v>
       </c>
       <c r="AG30" t="n">
-        <v>8627</v>
+        <v>490</v>
       </c>
       <c r="AH30" t="n">
-        <v>10606</v>
+        <v>628</v>
       </c>
       <c r="AI30" t="n">
-        <v>11182</v>
+        <v>659</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14192</v>
+        <v>930</v>
       </c>
       <c r="AK30" t="n">
-        <v>14725</v>
+        <v>432</v>
       </c>
       <c r="AL30" t="n">
-        <v>14767</v>
+        <v>694</v>
       </c>
       <c r="AM30" t="n">
-        <v>13196</v>
+        <v>498</v>
       </c>
       <c r="AN30" t="n">
-        <v>15999</v>
+        <v>2729</v>
       </c>
       <c r="AO30" t="n">
-        <v>45497</v>
+        <v>1108</v>
       </c>
       <c r="AP30" t="n">
-        <v>14665</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>14241</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LPC 18:0</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
+          <t>MHC d18:1/24:0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2665</v>
       </c>
       <c r="C31" t="n">
-        <v>393793</v>
+        <v>2313</v>
       </c>
       <c r="D31" t="n">
-        <v>351795</v>
+        <v>2242</v>
       </c>
       <c r="E31" t="n">
-        <v>345606</v>
+        <v>2242</v>
       </c>
       <c r="F31" t="n">
-        <v>344982</v>
+        <v>2381</v>
       </c>
       <c r="G31" t="n">
-        <v>340841</v>
+        <v>2087</v>
       </c>
       <c r="H31" t="n">
-        <v>341974</v>
+        <v>2298</v>
       </c>
       <c r="I31" t="n">
-        <v>340658</v>
+        <v>2255</v>
       </c>
       <c r="J31" t="n">
-        <v>341455</v>
+        <v>2195</v>
       </c>
       <c r="K31" t="n">
-        <v>339573</v>
+        <v>2222</v>
       </c>
       <c r="L31" t="n">
-        <v>339050</v>
+        <v>5896</v>
       </c>
       <c r="M31" t="n">
-        <v>360131</v>
+        <v>2197</v>
       </c>
       <c r="N31" t="n">
-        <v>246812</v>
+        <v>2401</v>
       </c>
       <c r="O31" t="n">
-        <v>310889</v>
+        <v>2228</v>
       </c>
       <c r="P31" t="n">
-        <v>341266</v>
+        <v>2312</v>
       </c>
       <c r="Q31" t="n">
-        <v>329799</v>
+        <v>2209</v>
       </c>
       <c r="R31" t="n">
-        <v>367434</v>
+        <v>2230</v>
       </c>
       <c r="S31" t="n">
-        <v>385171</v>
+        <v>2871</v>
       </c>
       <c r="T31" t="n">
-        <v>542878</v>
+        <v>13374</v>
       </c>
       <c r="U31" t="n">
-        <v>1307440</v>
+        <v>2047</v>
       </c>
       <c r="V31" t="n">
-        <v>326884</v>
+        <v>1762</v>
       </c>
       <c r="W31" t="n">
-        <v>153897</v>
+        <v>1864</v>
       </c>
       <c r="X31" t="n">
-        <v>195731</v>
+        <v>1900</v>
       </c>
       <c r="Y31" t="n">
-        <v>234546</v>
+        <v>1827</v>
       </c>
       <c r="Z31" t="n">
-        <v>246223</v>
+        <v>2122</v>
       </c>
       <c r="AA31" t="n">
-        <v>316368</v>
+        <v>1772</v>
       </c>
       <c r="AB31" t="n">
-        <v>223373</v>
+        <v>1731</v>
       </c>
       <c r="AC31" t="n">
-        <v>257914</v>
+        <v>2001</v>
       </c>
       <c r="AD31" t="n">
-        <v>331910</v>
+        <v>6998</v>
       </c>
       <c r="AE31" t="n">
-        <v>846623</v>
+        <v>1897</v>
       </c>
       <c r="AF31" t="n">
-        <v>316596</v>
+        <v>1234</v>
       </c>
       <c r="AG31" t="n">
-        <v>144083</v>
+        <v>1430</v>
       </c>
       <c r="AH31" t="n">
-        <v>193216</v>
+        <v>1405</v>
       </c>
       <c r="AI31" t="n">
-        <v>214944</v>
+        <v>1570</v>
       </c>
       <c r="AJ31" t="n">
-        <v>266676</v>
+        <v>2034</v>
       </c>
       <c r="AK31" t="n">
-        <v>311384</v>
+        <v>1554</v>
       </c>
       <c r="AL31" t="n">
-        <v>291182</v>
+        <v>1261</v>
       </c>
       <c r="AM31" t="n">
-        <v>261923</v>
+        <v>1286</v>
       </c>
       <c r="AN31" t="n">
-        <v>331407</v>
+        <v>6834</v>
       </c>
       <c r="AO31" t="n">
-        <v>929551</v>
+        <v>2072</v>
       </c>
       <c r="AP31" t="n">
-        <v>310229</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>304741</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>LPC 18:0</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>393793</v>
-      </c>
-      <c r="D32" t="n">
-        <v>351795</v>
-      </c>
-      <c r="E32" t="n">
-        <v>345606</v>
-      </c>
-      <c r="F32" t="n">
-        <v>344982</v>
-      </c>
-      <c r="G32" t="n">
-        <v>340841</v>
-      </c>
-      <c r="H32" t="n">
-        <v>341974</v>
-      </c>
-      <c r="I32" t="n">
-        <v>340658</v>
-      </c>
-      <c r="J32" t="n">
-        <v>341455</v>
-      </c>
-      <c r="K32" t="n">
-        <v>339573</v>
-      </c>
-      <c r="L32" t="n">
-        <v>339050</v>
-      </c>
-      <c r="M32" t="n">
-        <v>360131</v>
-      </c>
-      <c r="N32" t="n">
-        <v>246812</v>
-      </c>
-      <c r="O32" t="n">
-        <v>310889</v>
-      </c>
-      <c r="P32" t="n">
-        <v>341266</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>329799</v>
-      </c>
-      <c r="R32" t="n">
-        <v>367434</v>
-      </c>
-      <c r="S32" t="n">
-        <v>385171</v>
-      </c>
-      <c r="T32" t="n">
-        <v>542878</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1307440</v>
-      </c>
-      <c r="V32" t="n">
-        <v>326884</v>
-      </c>
-      <c r="W32" t="n">
-        <v>153897</v>
-      </c>
-      <c r="X32" t="n">
-        <v>195731</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>234546</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>246223</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>316368</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>223373</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>257914</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>331910</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>846623</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>316596</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>144083</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>193216</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>214944</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>266676</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>311384</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>291182</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>261923</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>331407</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>929551</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>310229</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>304741</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>LPC 20:1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3258</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2851</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2861</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2785</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2738</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2766</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2718</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2719</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2713</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2860</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2073</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2932</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3327</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2589</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3782</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4190</v>
-      </c>
-      <c r="T33" t="n">
-        <v>5899</v>
-      </c>
-      <c r="U33" t="n">
-        <v>10184</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2723</v>
-      </c>
-      <c r="W33" t="n">
-        <v>920</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1350</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1843</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>2060</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2584</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>2079</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>2360</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>3156</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>4204</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2670</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1049</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1477</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1723</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>2206</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2520</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>2460</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>2550</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>2934</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>5862</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>2599</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>LPC 20:1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>3258</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2851</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2861</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2785</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2738</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2766</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2718</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2719</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2713</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2860</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2073</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2932</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3327</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2589</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3782</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4190</v>
-      </c>
-      <c r="T34" t="n">
-        <v>5899</v>
-      </c>
-      <c r="U34" t="n">
-        <v>10184</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2723</v>
-      </c>
-      <c r="W34" t="n">
-        <v>920</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1350</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1843</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2060</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>2584</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2079</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>2360</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>3156</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>4204</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>2670</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1049</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1477</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1723</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>2206</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2520</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>2460</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>2550</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>2934</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>5862</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2599</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>LPC 19:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1507</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1217</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1199</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1198</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1116</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1182</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1135</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1114</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1148</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1150</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1294</v>
-      </c>
-      <c r="N35" t="n">
-        <v>913</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1074</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1207</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1087</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1325</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1427</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1851</v>
-      </c>
-      <c r="U35" t="n">
-        <v>4347</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1103</v>
-      </c>
-      <c r="W35" t="n">
-        <v>512</v>
-      </c>
-      <c r="X35" t="n">
-        <v>637</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>775</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>816</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1047</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>739</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>817</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1062</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2243</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>624</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>697</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>769</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1003</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1138</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1206</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>2865</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>LPC 19:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1507</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1217</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1199</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1198</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1116</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1182</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1135</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1114</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1148</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1150</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1294</v>
-      </c>
-      <c r="N36" t="n">
-        <v>913</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1074</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1207</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1087</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1325</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1427</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1851</v>
-      </c>
-      <c r="U36" t="n">
-        <v>4347</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1103</v>
-      </c>
-      <c r="W36" t="n">
-        <v>512</v>
-      </c>
-      <c r="X36" t="n">
-        <v>637</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>775</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>816</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1047</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>739</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>817</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1062</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>2243</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>624</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>697</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>769</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1003</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1138</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1206</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>2865</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>14599</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12752</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F37" t="n">
-        <v>12936</v>
-      </c>
-      <c r="G37" t="n">
-        <v>12720</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12310</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12159</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12428</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12273</v>
-      </c>
-      <c r="L37" t="n">
-        <v>12212</v>
-      </c>
-      <c r="M37" t="n">
-        <v>12841</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11750</v>
-      </c>
-      <c r="O37" t="n">
-        <v>12239</v>
-      </c>
-      <c r="P37" t="n">
-        <v>12643</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>11786</v>
-      </c>
-      <c r="R37" t="n">
-        <v>12711</v>
-      </c>
-      <c r="S37" t="n">
-        <v>12846</v>
-      </c>
-      <c r="T37" t="n">
-        <v>14347</v>
-      </c>
-      <c r="U37" t="n">
-        <v>18912</v>
-      </c>
-      <c r="V37" t="n">
-        <v>11915</v>
-      </c>
-      <c r="W37" t="n">
-        <v>10767</v>
-      </c>
-      <c r="X37" t="n">
-        <v>10297</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11096</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11197</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>11307</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>10924</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>11037</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>11851</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12864</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>11306</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>10677</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>10544</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>10684</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>11308</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>10999</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>11185</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>11050</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>11648</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>16232</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>10996</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>10945</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>14599</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12752</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12936</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12720</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12310</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12159</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12428</v>
-      </c>
-      <c r="K38" t="n">
-        <v>12273</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12212</v>
-      </c>
-      <c r="M38" t="n">
-        <v>12841</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11750</v>
-      </c>
-      <c r="O38" t="n">
-        <v>12239</v>
-      </c>
-      <c r="P38" t="n">
-        <v>12643</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>11786</v>
-      </c>
-      <c r="R38" t="n">
-        <v>12711</v>
-      </c>
-      <c r="S38" t="n">
-        <v>12846</v>
-      </c>
-      <c r="T38" t="n">
-        <v>14347</v>
-      </c>
-      <c r="U38" t="n">
-        <v>18912</v>
-      </c>
-      <c r="V38" t="n">
-        <v>11915</v>
-      </c>
-      <c r="W38" t="n">
-        <v>10767</v>
-      </c>
-      <c r="X38" t="n">
-        <v>10297</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>11096</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>11197</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>11307</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>10924</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11037</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>11851</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>12864</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11306</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10677</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>10544</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>10684</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11308</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>10999</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>11185</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>11050</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>11648</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>16232</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>10996</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>10945</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LPC 22:1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>192</v>
-      </c>
-      <c r="D39" t="n">
-        <v>165</v>
-      </c>
-      <c r="E39" t="n">
-        <v>136</v>
-      </c>
-      <c r="F39" t="n">
-        <v>175</v>
-      </c>
-      <c r="G39" t="n">
-        <v>181</v>
-      </c>
-      <c r="H39" t="n">
-        <v>150</v>
-      </c>
-      <c r="I39" t="n">
-        <v>156</v>
-      </c>
-      <c r="J39" t="n">
-        <v>102</v>
-      </c>
-      <c r="K39" t="n">
-        <v>134</v>
-      </c>
-      <c r="L39" t="n">
-        <v>141</v>
-      </c>
-      <c r="M39" t="n">
-        <v>161</v>
-      </c>
-      <c r="N39" t="n">
-        <v>140</v>
-      </c>
-      <c r="O39" t="n">
-        <v>163</v>
-      </c>
-      <c r="P39" t="n">
-        <v>137</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>132</v>
-      </c>
-      <c r="R39" t="n">
-        <v>204</v>
-      </c>
-      <c r="S39" t="n">
-        <v>195</v>
-      </c>
-      <c r="T39" t="n">
-        <v>260</v>
-      </c>
-      <c r="U39" t="n">
-        <v>517</v>
-      </c>
-      <c r="V39" t="n">
-        <v>193</v>
-      </c>
-      <c r="W39" t="n">
-        <v>96</v>
-      </c>
-      <c r="X39" t="n">
-        <v>93</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>147</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>127</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>199</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>291</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>154</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>103</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>124</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>129</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>159</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>125</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LPC 22:1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>192</v>
-      </c>
-      <c r="D40" t="n">
-        <v>165</v>
-      </c>
-      <c r="E40" t="n">
-        <v>136</v>
-      </c>
-      <c r="F40" t="n">
-        <v>175</v>
-      </c>
-      <c r="G40" t="n">
-        <v>181</v>
-      </c>
-      <c r="H40" t="n">
-        <v>150</v>
-      </c>
-      <c r="I40" t="n">
-        <v>156</v>
-      </c>
-      <c r="J40" t="n">
-        <v>102</v>
-      </c>
-      <c r="K40" t="n">
-        <v>134</v>
-      </c>
-      <c r="L40" t="n">
-        <v>141</v>
-      </c>
-      <c r="M40" t="n">
-        <v>161</v>
-      </c>
-      <c r="N40" t="n">
-        <v>140</v>
-      </c>
-      <c r="O40" t="n">
-        <v>163</v>
-      </c>
-      <c r="P40" t="n">
-        <v>137</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>132</v>
-      </c>
-      <c r="R40" t="n">
-        <v>204</v>
-      </c>
-      <c r="S40" t="n">
-        <v>195</v>
-      </c>
-      <c r="T40" t="n">
-        <v>260</v>
-      </c>
-      <c r="U40" t="n">
-        <v>517</v>
-      </c>
-      <c r="V40" t="n">
-        <v>193</v>
-      </c>
-      <c r="W40" t="n">
-        <v>96</v>
-      </c>
-      <c r="X40" t="n">
-        <v>93</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>147</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>127</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>199</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>291</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>154</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>103</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>124</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>129</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>159</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>125</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LPC 22:0</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>266</v>
-      </c>
-      <c r="D41" t="n">
-        <v>178</v>
-      </c>
-      <c r="E41" t="n">
-        <v>227</v>
-      </c>
-      <c r="F41" t="n">
-        <v>208</v>
-      </c>
-      <c r="G41" t="n">
-        <v>235</v>
-      </c>
-      <c r="H41" t="n">
-        <v>246</v>
-      </c>
-      <c r="I41" t="n">
-        <v>234</v>
-      </c>
-      <c r="J41" t="n">
-        <v>196</v>
-      </c>
-      <c r="K41" t="n">
-        <v>205</v>
-      </c>
-      <c r="L41" t="n">
-        <v>240</v>
-      </c>
-      <c r="M41" t="n">
-        <v>336</v>
-      </c>
-      <c r="N41" t="n">
-        <v>212</v>
-      </c>
-      <c r="O41" t="n">
-        <v>268</v>
-      </c>
-      <c r="P41" t="n">
-        <v>291</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>228</v>
-      </c>
-      <c r="R41" t="n">
-        <v>321</v>
-      </c>
-      <c r="S41" t="n">
-        <v>330</v>
-      </c>
-      <c r="T41" t="n">
-        <v>443</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1094</v>
-      </c>
-      <c r="V41" t="n">
-        <v>225</v>
-      </c>
-      <c r="W41" t="n">
-        <v>90</v>
-      </c>
-      <c r="X41" t="n">
-        <v>116</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>109</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>228</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>132</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>128</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>146</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>315</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>244</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>125</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>138</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>134</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>156</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>229</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>154</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>181</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>192</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>525</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>205</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LPC 22:0</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LPC 20:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>266</v>
-      </c>
-      <c r="D42" t="n">
-        <v>178</v>
-      </c>
-      <c r="E42" t="n">
-        <v>227</v>
-      </c>
-      <c r="F42" t="n">
-        <v>208</v>
-      </c>
-      <c r="G42" t="n">
-        <v>235</v>
-      </c>
-      <c r="H42" t="n">
-        <v>246</v>
-      </c>
-      <c r="I42" t="n">
-        <v>234</v>
-      </c>
-      <c r="J42" t="n">
-        <v>196</v>
-      </c>
-      <c r="K42" t="n">
-        <v>205</v>
-      </c>
-      <c r="L42" t="n">
-        <v>240</v>
-      </c>
-      <c r="M42" t="n">
-        <v>336</v>
-      </c>
-      <c r="N42" t="n">
-        <v>212</v>
-      </c>
-      <c r="O42" t="n">
-        <v>268</v>
-      </c>
-      <c r="P42" t="n">
-        <v>291</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>228</v>
-      </c>
-      <c r="R42" t="n">
-        <v>321</v>
-      </c>
-      <c r="S42" t="n">
-        <v>330</v>
-      </c>
-      <c r="T42" t="n">
-        <v>443</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1094</v>
-      </c>
-      <c r="V42" t="n">
-        <v>225</v>
-      </c>
-      <c r="W42" t="n">
-        <v>90</v>
-      </c>
-      <c r="X42" t="n">
-        <v>116</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>109</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>228</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>132</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>128</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>146</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>315</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>244</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>125</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>138</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>134</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>156</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>229</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>154</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>181</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>192</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>525</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>205</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>LPC 24:0</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>399</v>
-      </c>
-      <c r="D43" t="n">
-        <v>361</v>
-      </c>
-      <c r="E43" t="n">
-        <v>437</v>
-      </c>
-      <c r="F43" t="n">
-        <v>353</v>
-      </c>
-      <c r="G43" t="n">
-        <v>308</v>
-      </c>
-      <c r="H43" t="n">
-        <v>380</v>
-      </c>
-      <c r="I43" t="n">
-        <v>365</v>
-      </c>
-      <c r="J43" t="n">
-        <v>407</v>
-      </c>
-      <c r="K43" t="n">
-        <v>344</v>
-      </c>
-      <c r="L43" t="n">
-        <v>357</v>
-      </c>
-      <c r="M43" t="n">
-        <v>763</v>
-      </c>
-      <c r="N43" t="n">
-        <v>424</v>
-      </c>
-      <c r="O43" t="n">
-        <v>438</v>
-      </c>
-      <c r="P43" t="n">
-        <v>528</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>360</v>
-      </c>
-      <c r="R43" t="n">
-        <v>422</v>
-      </c>
-      <c r="S43" t="n">
-        <v>489</v>
-      </c>
-      <c r="T43" t="n">
-        <v>588</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2290</v>
-      </c>
-      <c r="V43" t="n">
-        <v>417</v>
-      </c>
-      <c r="W43" t="n">
-        <v>228</v>
-      </c>
-      <c r="X43" t="n">
-        <v>188</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>208</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>171</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>364</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>167</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>226</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>167</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>766</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>353</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>226</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>184</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>268</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>238</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>363</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>274</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>932</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>349</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>LPC 24:0</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LPC 17:0 (IS)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>399</v>
-      </c>
-      <c r="D44" t="n">
-        <v>361</v>
-      </c>
-      <c r="E44" t="n">
-        <v>437</v>
-      </c>
-      <c r="F44" t="n">
-        <v>353</v>
-      </c>
-      <c r="G44" t="n">
-        <v>308</v>
-      </c>
-      <c r="H44" t="n">
-        <v>380</v>
-      </c>
-      <c r="I44" t="n">
-        <v>365</v>
-      </c>
-      <c r="J44" t="n">
-        <v>407</v>
-      </c>
-      <c r="K44" t="n">
-        <v>344</v>
-      </c>
-      <c r="L44" t="n">
-        <v>357</v>
-      </c>
-      <c r="M44" t="n">
-        <v>763</v>
-      </c>
-      <c r="N44" t="n">
-        <v>424</v>
-      </c>
-      <c r="O44" t="n">
-        <v>438</v>
-      </c>
-      <c r="P44" t="n">
-        <v>528</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>360</v>
-      </c>
-      <c r="R44" t="n">
-        <v>422</v>
-      </c>
-      <c r="S44" t="n">
-        <v>489</v>
-      </c>
-      <c r="T44" t="n">
-        <v>588</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2290</v>
-      </c>
-      <c r="V44" t="n">
-        <v>417</v>
-      </c>
-      <c r="W44" t="n">
-        <v>228</v>
-      </c>
-      <c r="X44" t="n">
-        <v>188</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>208</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>171</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>364</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>167</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>226</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>167</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>766</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>353</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>226</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>184</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>268</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>238</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>363</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>274</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>932</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>349</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MHC d18:1/8:0 STD</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>3528</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3233</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3141</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3177</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3194</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3140</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3157</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3113</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3047</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3091</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2996</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2961</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3031</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2944</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3081</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2988</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3293</v>
-      </c>
-      <c r="U45" t="n">
-        <v>4255</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2994</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2792</v>
-      </c>
-      <c r="X45" t="n">
-        <v>2837</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>2855</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>2915</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>2893</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>2988</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>2847</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>2962</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>3362</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>2974</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>3013</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>2948</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>3014</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>3137</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>2934</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>2959</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>2954</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>2976</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>4246</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>2879</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1764</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1874</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1667</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1578</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1745</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2114</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1286</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1671</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1818</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2249</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1963</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1873</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1647</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2079</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2025</v>
-      </c>
-      <c r="U46" t="n">
-        <v>688</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1191</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2062</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1795</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1633</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2185</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1559</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>2154</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>2204</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1820</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1002</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1629</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2126</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1781</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>2158</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1908</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1309</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1801</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1633</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>2037</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>942</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1554</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1346</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1246</v>
-      </c>
-      <c r="E47" t="n">
-        <v>890</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1122</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1177</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1128</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1386</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1098</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1337</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1358</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1806</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1379</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1490</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1317</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1224</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1190</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1246</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1285</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3213</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1016</v>
-      </c>
-      <c r="W47" t="n">
-        <v>769</v>
-      </c>
-      <c r="X47" t="n">
-        <v>862</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>842</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>701</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1247</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>969</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>890</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1284</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1761</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1277</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1308</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>766</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1089</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1050</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1244</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1461</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1073</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1082</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>2588</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>1273</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MHC d18:1/18:0</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>289</v>
-      </c>
-      <c r="D48" t="n">
-        <v>195</v>
-      </c>
-      <c r="E48" t="n">
-        <v>265</v>
-      </c>
-      <c r="F48" t="n">
-        <v>229</v>
-      </c>
-      <c r="G48" t="n">
-        <v>162</v>
-      </c>
-      <c r="H48" t="n">
-        <v>317</v>
-      </c>
-      <c r="I48" t="n">
-        <v>193</v>
-      </c>
-      <c r="J48" t="n">
-        <v>149</v>
-      </c>
-      <c r="K48" t="n">
-        <v>181</v>
-      </c>
-      <c r="L48" t="n">
-        <v>298</v>
-      </c>
-      <c r="M48" t="n">
-        <v>468</v>
-      </c>
-      <c r="N48" t="n">
-        <v>267</v>
-      </c>
-      <c r="O48" t="n">
-        <v>118</v>
-      </c>
-      <c r="P48" t="n">
-        <v>143</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>102</v>
-      </c>
-      <c r="R48" t="n">
-        <v>227</v>
-      </c>
-      <c r="S48" t="n">
-        <v>113</v>
-      </c>
-      <c r="T48" t="n">
-        <v>237</v>
-      </c>
-      <c r="U48" t="n">
-        <v>412</v>
-      </c>
-      <c r="V48" t="n">
-        <v>284</v>
-      </c>
-      <c r="W48" t="n">
-        <v>120</v>
-      </c>
-      <c r="X48" t="n">
-        <v>125</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>137</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>186</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>181</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>194</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>119</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>211</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>501</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>122</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>139</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>123</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>74</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>87</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>268</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>99</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>115</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>384</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>198</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MHC d18:1/20:0</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>223</v>
-      </c>
-      <c r="D49" t="n">
-        <v>121</v>
-      </c>
-      <c r="E49" t="n">
-        <v>190</v>
-      </c>
-      <c r="F49" t="n">
-        <v>155</v>
-      </c>
-      <c r="G49" t="n">
-        <v>297</v>
-      </c>
-      <c r="H49" t="n">
-        <v>203</v>
-      </c>
-      <c r="I49" t="n">
-        <v>163</v>
-      </c>
-      <c r="J49" t="n">
-        <v>217</v>
-      </c>
-      <c r="K49" t="n">
-        <v>94</v>
-      </c>
-      <c r="L49" t="n">
-        <v>90</v>
-      </c>
-      <c r="M49" t="n">
-        <v>357</v>
-      </c>
-      <c r="N49" t="n">
-        <v>190</v>
-      </c>
-      <c r="O49" t="n">
-        <v>116</v>
-      </c>
-      <c r="P49" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>130</v>
-      </c>
-      <c r="R49" t="n">
-        <v>166</v>
-      </c>
-      <c r="S49" t="n">
-        <v>68</v>
-      </c>
-      <c r="T49" t="n">
-        <v>198</v>
-      </c>
-      <c r="U49" t="n">
-        <v>779</v>
-      </c>
-      <c r="V49" t="n">
-        <v>166</v>
-      </c>
-      <c r="W49" t="n">
-        <v>108</v>
-      </c>
-      <c r="X49" t="n">
-        <v>167</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>137</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>173</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>198</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>475</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>125</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>103</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>64</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>108</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>119</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>33</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>73</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>49</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>393</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>133</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MHC d18:1/22:0</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1904</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2051</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1430</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1655</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1777</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1614</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1685</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1790</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4458</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1469</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1720</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1866</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1931</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1513</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1875</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2361</v>
-      </c>
-      <c r="U50" t="n">
-        <v>10315</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1604</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1351</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1374</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1507</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1201</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1621</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>996</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1231</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>1772</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>4848</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>1471</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>974</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1199</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1565</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1129</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>836</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>890</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>5225</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>1488</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MHC d18:1/24:1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1382</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1080</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1395</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1308</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1252</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1207</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1241</v>
-      </c>
-      <c r="K51" t="n">
-        <v>991</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1307</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1868</v>
-      </c>
-      <c r="N51" t="n">
-        <v>916</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1205</v>
-      </c>
-      <c r="P51" t="n">
-        <v>910</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1062</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1040</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1042</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1328</v>
-      </c>
-      <c r="U51" t="n">
-        <v>6014</v>
-      </c>
-      <c r="V51" t="n">
-        <v>958</v>
-      </c>
-      <c r="W51" t="n">
-        <v>972</v>
-      </c>
-      <c r="X51" t="n">
-        <v>936</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1054</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1106</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1067</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1011</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>1026</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1117</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>4091</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1275</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>610</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>490</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>628</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>659</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>930</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>432</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>694</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>498</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>2729</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>1108</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MHC d18:1/24:0</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MHC d18:1/16:0d3 (IS)</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2313</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2242</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2242</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2381</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2087</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2298</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2255</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2195</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2222</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5896</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2197</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2401</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2228</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2312</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2209</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2230</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2871</v>
-      </c>
-      <c r="U52" t="n">
-        <v>13374</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2047</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1762</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1864</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1900</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1827</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2122</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1772</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1731</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>6998</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1897</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>1430</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1405</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1570</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>2034</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>1554</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>1261</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>1286</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>6834</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>2072</v>
-      </c>
-      <c r="AQ52" t="n">
         <v>2093</v>
       </c>
     </row>
